--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
+    <col width="61" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="65" customWidth="1" min="4" max="4"/>
-    <col width="68" customWidth="1" min="5" max="5"/>
+    <col width="57" customWidth="1" min="4" max="4"/>
+    <col width="69" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -511,7 +511,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">BLOCKED by                                                 </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -521,12 +521,12 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                     </t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                        </t>
+          <t xml:space="preserve">BLOCKED by                                                         </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">BLOCKED by                                                 </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -558,12 +558,12 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                     </t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                        </t>
+          <t xml:space="preserve">BLOCKED by                                                         </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -585,33 +585,32 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by NR                                                 </t>
+          <t xml:space="preserve">BLOCKED by                                                 </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - BCA Lab by NR)
- by SME, DR AMRUTHA, MAN, NR, RA, CYN</t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                                            </t>
+          <t xml:space="preserve">BLOCKED by                                                         </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by NR                          </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by NR                          </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -623,7 +622,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by KR                                                 </t>
+          <t xml:space="preserve">PSD by NR                                                  </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -634,23 +633,23 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - BCA Lab by NR)
- by SME, DR AMRUTHA, MAN, NR, RA, CYN</t>
+          <t>PSD (Lab - BSc Lab by NR)
+ by NR, CYN, KR, SD, SME, FHP</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">language by                                                       </t>
+          <t xml:space="preserve">language by                                                        </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by XYZ                       </t>
+          <t xml:space="preserve">PSD by NR                          </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by XYZ                       </t>
+          <t xml:space="preserve">PSD by NR                          </t>
         </is>
       </c>
     </row>
@@ -662,32 +661,33 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                    </t>
+          <t xml:space="preserve">HED by                                                     </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by NR                          </t>
+          <t xml:space="preserve">MDC by                             </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by SA, CHA                                                 </t>
+          <t>PSD (Lab - BSc Lab by NR)
+ by NR, CYN, KR, SD, SME, FHP</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by SA, CHA                                                    </t>
+          <t xml:space="preserve">MDC by                                                             </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1BCAA                   </t>
+          <t xml:space="preserve">MATHS by XYZ                       </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1BCAA                   </t>
+          <t xml:space="preserve">MATHS by XYZ                       </t>
         </is>
       </c>
     </row>
@@ -699,33 +699,32 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                  </t>
+          <t xml:space="preserve">IWT by KR                                                  </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">PSD by NR                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by 
-activity by                                          </t>
+          <t xml:space="preserve">activity by                                            </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                          </t>
+          <t xml:space="preserve">OOP by SA, CHA                                                     </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">LIBRARY by 1BCAA                   </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LIBRARY by 1BCAA                   </t>
         </is>
       </c>
     </row>
@@ -737,34 +736,32 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - BCA Lab by SA, CHA)
- by CHA, RV, KR, NR, SA, SD</t>
+          <t xml:space="preserve">LUNCH by                                                   </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA)     </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by KR                                                      </t>
+          <t xml:space="preserve">LUNCH by                                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - BCA Lab by KR)
- by DR SARAVANAN KN, MN, KR, BE, TM, RES</t>
+          <t xml:space="preserve">LUNCH by                                                           </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -777,7 +774,7 @@
       <c r="B9" s="4" t="inlineStr">
         <is>
           <t>OOP (Lab - BCA Lab by SA, CHA)
- by CHA, RV, KR, NR, SA, SD</t>
+ by NR, SA, SG, KR, APR, CHA</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -787,13 +784,13 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by XYZ                                                   </t>
+          <t xml:space="preserve">OOP by SA, CHA                                         </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t>IWT (Lab - BCA Lab by KR)
- by DR SARAVANAN KN, MN, KR, BE, TM, RES</t>
+ by LJ, RV, KR, DR SARAVANAN K N, CHA, SD</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -802,6 +799,45 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>OOP (Lab - BCA Lab by SA, CHA)
+ by NR, SA, SG, KR, APR, CHA</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA)     </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IWT by KR                                              </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>IWT (Lab - BCA Lab by KR)
+ by LJ, RV, KR, DR SARAVANAN K N, CHA, SD</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MATHS by XYZ                       </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by                         </t>
         </is>
@@ -818,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,8 +863,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="61" customWidth="1" min="2" max="2"/>
-    <col width="69" customWidth="1" min="3" max="3"/>
+    <col width="74" customWidth="1" min="2" max="2"/>
+    <col width="71" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
@@ -877,12 +913,12 @@
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t>JAVA (Lab - MCA Lab by SR, MN)
- by LJ, KNS, MN, KR, APR, SR</t>
+ by SR, LJ, RV, MN, APR, DR SARAVANAN K N</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by SR, MN                                                     </t>
+          <t xml:space="preserve">JAVA by SR, MN                                                       </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -892,7 +928,7 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">INTERNSHIP by 3CM SI               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -915,12 +951,12 @@
       <c r="B3" s="4" t="inlineStr">
         <is>
           <t>JAVA (Lab - MCA Lab by SR, MN)
- by LJ, KNS, MN, KR, APR, SR</t>
+ by SR, LJ, RV, MN, APR, DR SARAVANAN K N</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by SR, MN                                                     </t>
+          <t xml:space="preserve">JAVA by SR, MN                                                       </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -952,12 +988,12 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                   </t>
+          <t xml:space="preserve">LUNCH by                                                                </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                           </t>
+          <t xml:space="preserve">LUNCH by                                                             </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -989,18 +1025,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by RM                                               </t>
+          <t xml:space="preserve">PYTHON by RM                                                            </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - BSc Lab by RM)
- by DR NEWBEGIN, KNS, FHP, RM, RA, SME</t>
+ by NR, RM, SA, SG, KR, DR SARAVANAN K N</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">INTERNSHIP by 3CM SI               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1027,18 +1063,18 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                     </t>
+          <t xml:space="preserve">HED by                                                                  </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - BSc Lab by RM)
- by DR NEWBEGIN, KNS, FHP, RM, RA, SME</t>
+ by NR, RM, SA, SG, KR, DR SARAVANAN K N</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LIBRARY by 3CM                     </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1053,7 +1089,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -1065,12 +1101,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 3CM                                             </t>
+          <t xml:space="preserve">INTERNSHIP by 3CM SI                                                    </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                               </t>
+          <t xml:space="preserve">INTERNSHIP by 3CM SI                                                 </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1102,12 +1138,12 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve">BLOCKED by                                                              </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                         </t>
+          <t xml:space="preserve">BLOCKED by                                                           </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1127,7 +1163,8 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by 
+BLOCKED by             </t>
         </is>
       </c>
     </row>
@@ -1139,12 +1176,12 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve">BLOCKED by                                                              </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                         </t>
+          <t xml:space="preserve">BLOCKED by                                                           </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1163,6 +1200,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                                              </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                                           </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by                         </t>
         </is>
@@ -1179,7 +1253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1188,11 +1262,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="128" customWidth="1" min="2" max="2"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="84" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="57" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1237,7 +1311,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                                                    </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -1247,7 +1321,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                        </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -1257,7 +1331,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -1274,7 +1348,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                                                    </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -1284,7 +1358,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                        </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -1294,7 +1368,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -1311,100 +1385,99 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">BLOCKED by                                                                    </t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                             </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Hour 4</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
           <t>WT (Lab - BCA Lab by HU)
 GA (Lab - BCA Lab by CHA)
- by DR NEWBEGIN, HU, SG, SME, FHP, SD
- by DR NEWBEGIN, HU, SG, SME, FHP, SD</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
+ by SH, SG, MN, KR, HU, FHP</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">WT by HU
 GA by CHA                 </t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WT by HU
-GA by CHA                                                                </t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">WT by HU
 GA by CHA                 </t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Hour 4</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WT by HU
+GA by CHA                 </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>DA (Lab - BCA Lab by AMR)
+ by RM, AMR, TM, RES, BE, KNS</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>WT (Lab - BCA Lab by HU)
 GA (Lab - BCA Lab by CHA)
- by DR NEWBEGIN, HU, SG, SME, FHP, SD
- by DR NEWBEGIN, HU, SG, SME, FHP, SD</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                              </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DA by DR AMRUTHA                   </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Hour 5</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DA by DR AMRUTHA                                                                                                              </t>
+ by SH, SG, MN, KR, HU, FHP</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA by DR AMRUTHA                   </t>
+          <t xml:space="preserve">DA by AMR                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                              </t>
+          <t xml:space="preserve">DA by AMR                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1414,7 +1487,8 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>DA (Lab - BCA Lab by AMR)
+ by RM, AMR, TM, RES, BE, KNS</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1431,27 +1505,27 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                                                                                      </t>
+          <t xml:space="preserve">DA by AMR                                                                     </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                                   </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -1468,33 +1542,32 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 5CME                                                                                                               </t>
+          <t xml:space="preserve">LUNCH by                                                                      </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>DA (Lab - MCA Lab by DR AMRUTHA)
- by DR SARAVANAN KN, VKR, MN, DR AMRUTHA, SR, RES</t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                                               </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -1506,7 +1579,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                                          </t>
+          <t xml:space="preserve">LIBRARY by 5CME                                                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -1516,8 +1589,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>DA (Lab - MCA Lab by DR AMRUTHA)
- by DR SARAVANAN KN, VKR, MN, DR AMRUTHA, SR, RES</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -1527,10 +1599,47 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                   </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                   </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by                         </t>
         </is>
@@ -1547,7 +1656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,7 +1714,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, DR SARAVANAN KN) in 3CS               </t>
+          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, KNS) in 3CS                           </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -1644,7 +1753,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, DR SARAVANAN KN) in 3CS               </t>
+          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, KNS) in 3CS                           </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -1683,85 +1792,85 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                                                              </t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                    </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                      </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                 </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Hour 4</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
           <t>WT (Lab - BCA Lab by HU) in 5CME
 GA (Lab - BCA Lab by CHA) in 5CME</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A       </t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                      </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DA (Lab - BCA Lab by AMR) in 5CME                                    </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                                                                 </t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Hour 4</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>WT (Lab - BCA Lab by HU) in 5CME
 GA (Lab - BCA Lab by CHA) in 5CME</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                    </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A       </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                 </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Hour 5</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA (Lab - BCA Lab by VKR) in 5BCA A                               </t>
-        </is>
-      </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MA (Lab - BCA Lab by VKR) in 5BCA A     </t>
@@ -1779,7 +1888,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">DA (Lab - BCA Lab by AMR) in 5CME                                    </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1796,7 +1905,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - BCA Lab by VKR) in 5BCA A                               </t>
+          <t xml:space="preserve">Free                                                              </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1833,22 +1942,22 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                          </t>
+          <t xml:space="preserve">Free                                                              </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - BCA Lab by SA, CHA) in 1BCA A</t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BCA Lab by BE) in 1CS          </t>
+          <t xml:space="preserve">Free                                      </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - BCA Lab by KR) in 1BCA A</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -1880,7 +1989,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BCA Lab by BE) in 1CS          </t>
+          <t xml:space="preserve">PSD (Lab - BCA Lab by APR) in 1BCA B      </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -1894,6 +2003,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                 </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>OOP (Lab - BCA Lab by SA, CHA) in 1BCA A</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSD (Lab - BCA Lab by APR) in 1BCA B      </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>IWT (Lab - BCA Lab by KR) in 1BCA A</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                 </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                                                                 </t>
         </is>
@@ -1910,7 +2056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1919,12 +2065,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="55" customWidth="1" min="2" max="2"/>
+    <col width="55" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="89" customWidth="1" min="6" max="6"/>
-    <col width="89" customWidth="1" min="7" max="7"/>
+    <col width="73" customWidth="1" min="6" max="6"/>
+    <col width="73" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1968,12 +2114,12 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (Lab - MCA Lab by SR, MN) in 3CM   </t>
+          <t xml:space="preserve">JAVA (Lab - MCA Lab by SR, MN) in 3CM                </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -1988,14 +2134,14 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>BI (Lab - MCA Lab by DR NEWBEGIN) in 5BCA A
-BI (Lab - MCA Lab by DR NEWBEGIN) in 5BCA B</t>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>BI (Lab - MCA Lab by DR NEWBEGIN) in 5BCA A
-BI (Lab - MCA Lab by DR NEWBEGIN) in 5BCA B</t>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
         </is>
       </c>
     </row>
@@ -2007,12 +2153,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (Lab - MCA Lab by SR, MN) in 3CM   </t>
+          <t xml:space="preserve">JAVA (Lab - MCA Lab by SR, MN) in 3CM                </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2027,14 +2173,14 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>BI (Lab - MCA Lab by DR NEWBEGIN) in 5BCA A
-BI (Lab - MCA Lab by DR NEWBEGIN) in 5BCA B</t>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>BI (Lab - MCA Lab by DR NEWBEGIN) in 5BCA A
-BI (Lab - MCA Lab by DR NEWBEGIN) in 5BCA B</t>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
         </is>
       </c>
     </row>
@@ -2046,17 +2192,17 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (Lab - MCA Lab by APR) in 1BCA B       </t>
+          <t xml:space="preserve">Free                                       </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -2066,12 +2212,12 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
     </row>
@@ -2083,17 +2229,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (Lab - MCA Lab by APR) in 1BCA B       </t>
+          <t xml:space="preserve">Free                                       </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2103,12 +2249,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
     </row>
@@ -2120,12 +2266,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B     </t>
+          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 5BCA A                  </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B     </t>
+          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B                  </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -2140,12 +2286,12 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
     </row>
@@ -2157,12 +2303,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B     </t>
+          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 5BCA A                  </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B     </t>
+          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B                  </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -2177,12 +2323,12 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
     </row>
@@ -2194,32 +2340,32 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (Lab - MCA Lab by SR, LJ) in 1CS    </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (Lab - MCA Lab by DR AMRUTHA) in 5CME   </t>
+          <t xml:space="preserve">Free                                       </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - MCA Lab by SG) in 1BCA B</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
     </row>
@@ -2231,17 +2377,17 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF (Lab - MCA Lab by SR, LJ) in 1CS    </t>
+          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ) in 1BCA B</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
+          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ) in 1BCA B</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (Lab - MCA Lab by DR AMRUTHA) in 5CME   </t>
+          <t xml:space="preserve">DAS (Lab - MCA Lab by FHP) in 1CM          </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -2251,12 +2397,49 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">Free                                                                   </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ) in 1BCA B</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ) in 1BCA B</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (Lab - MCA Lab by FHP) in 1CM          </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>IWT (Lab - MCA Lab by SG) in 1BCA B</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                   </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
     </row>
@@ -2271,7 +2454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2282,7 +2465,7 @@
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="38" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="38" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
@@ -2339,7 +2522,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by BE) in 3CS   </t>
+          <t xml:space="preserve">WAD (Lab - BSc Lab by BE) in 3CS    </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -2376,7 +2559,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by BE) in 3CS   </t>
+          <t xml:space="preserve">WAD (Lab - BSc Lab by BE) in 3CS    </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -2403,7 +2586,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
+          <t xml:space="preserve">Free                                </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -2413,7 +2596,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BSc Lab by FHP) in 1CM  </t>
+          <t xml:space="preserve">Free                                </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -2440,7 +2623,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
+          <t xml:space="preserve">Free                                </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -2450,7 +2633,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BSc Lab by FHP) in 1CM  </t>
+          <t xml:space="preserve">PSD (Lab - BSc Lab by NR) in 1BCA A </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2477,7 +2660,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">MA (Lab - BSc Lab by MAN) in 5BCA B </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2487,7 +2670,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (Lab - BSc Lab by NR) in 1BCA A </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -2514,17 +2697,17 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">MA (Lab - BSc Lab by MAN) in 5BCA B </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free                                </t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2556,12 +2739,12 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -2588,7 +2771,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -2598,12 +2781,12 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>DCF (Lab - BSc Lab by SR, LJ) in 1CS</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -2612,6 +2795,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM   </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>DCF (Lab - BSc Lab by SR, LJ) in 1CS</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                               </t>
         </is>
@@ -2628,7 +2848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2637,10 +2857,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="61" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="67" customWidth="1" min="4" max="4"/>
-    <col width="68" customWidth="1" min="5" max="5"/>
+    <col width="88" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="71" customWidth="1" min="4" max="4"/>
+    <col width="58" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -2686,22 +2906,22 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve">BLOCKED by                                                                            </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                 </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                       </t>
+          <t xml:space="preserve">BLOCKED by                                                           </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                        </t>
+          <t xml:space="preserve">BLOCKED by                                              </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -2723,22 +2943,22 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve">BLOCKED by                                                                            </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                 </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                       </t>
+          <t xml:space="preserve">BLOCKED by                                                           </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                        </t>
+          <t xml:space="preserve">BLOCKED by                                              </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -2760,34 +2980,32 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ)
- by LJ, KNS, SG, VA, FHP, SD</t>
+          <t xml:space="preserve">BLOCKED by                                                                            </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve">BLOCKED by                                 </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - MCA Lab by APR)
- by SME, DR AMRUTHA, MAN, APR, RA, CYN</t>
+          <t xml:space="preserve">BLOCKED by                                                           </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                                            </t>
+          <t xml:space="preserve">BLOCKED by                                              </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by APR                         </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by APR                         </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -2799,35 +3017,33 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ)
- by LJ, KNS, SG, VA, FHP, SD</t>
+          <t xml:space="preserve">PSD by APR                                                                            </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MDC by 
-language by                </t>
+language by                        </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - MCA Lab by APR)
- by SME, DR AMRUTHA, MAN, APR, RA, CYN</t>
+          <t xml:space="preserve">OOP by DR SARAVANAN K N, LJ                                          </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">language by                                                       </t>
+          <t xml:space="preserve">language by                                             </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by TEMP                      </t>
+          <t xml:space="preserve">PSD by APR                         </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by TEMP                      </t>
+          <t xml:space="preserve">PSD by APR                         </t>
         </is>
       </c>
     </row>
@@ -2839,32 +3055,32 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                     </t>
+          <t xml:space="preserve">HED by                                                                                </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by APR                         </t>
+          <t xml:space="preserve">MDC by                                     </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by KNS, LJ                                                   </t>
+          <t xml:space="preserve">IWT by SG                                                            </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by KNS, LJ                                                    </t>
+          <t xml:space="preserve">MDC by                                                  </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1BCA B                  </t>
+          <t xml:space="preserve">MATHS by TEMP                      </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1BCA B                  </t>
+          <t xml:space="preserve">MATHS by TEMP                      </t>
         </is>
       </c>
     </row>
@@ -2876,33 +3092,32 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                   </t>
+          <t xml:space="preserve">IWT by SG                                                                             </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">PSD by APR                                 </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by 
-activity by                                            </t>
+          <t xml:space="preserve">activity by                                                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                          </t>
+          <t xml:space="preserve">OOP by DR SARAVANAN K N, LJ                             </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">LIBRARY by 1BCA B                  </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LIBRARY by 1BCA B                  </t>
         </is>
       </c>
     </row>
@@ -2914,33 +3129,32 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by APR                                                 </t>
+          <t xml:space="preserve">LUNCH by                                                                              </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (Lab - MCA Lab by KNS, LJ)     </t>
+          <t xml:space="preserve">LUNCH by                                   </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by SG                                                        </t>
+          <t xml:space="preserve">LUNCH by                                                             </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - MCA Lab by SG)
- by DR SARAVANAN KN, SG, MN, BE, TM, RES</t>
+          <t xml:space="preserve">LUNCH by                                                </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2952,23 +3166,25 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by SG                                                  </t>
+          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ)
+ by LJ, CYN, RV, DR SARAVANAN K N, SD, FHP</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (Lab - MCA Lab by KNS, LJ)     </t>
+          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ)</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by TEMP                                                    </t>
+          <t>PSD (Lab - BCA Lab by APR)
+ by NR, CYN, RV, SG, DR SARAVANAN K N, APR</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t>IWT (Lab - MCA Lab by SG)
- by DR SARAVANAN KN, SG, MN, BE, TM, RES</t>
+ by AMR, VKR, SG, RA, MAN, SME</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -2977,6 +3193,46 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ)
+ by LJ, CYN, RV, DR SARAVANAN K N, SD, FHP</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ)</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>PSD (Lab - BCA Lab by APR)
+ by NR, CYN, RV, SG, DR SARAVANAN K N, APR</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>IWT (Lab - MCA Lab by SG)
+ by AMR, VKR, SG, RA, MAN, SME</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MATHS by TEMP                      </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by                         </t>
         </is>
@@ -2993,7 +3249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3004,8 +3260,8 @@
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="62" customWidth="1" min="4" max="4"/>
-    <col width="68" customWidth="1" min="5" max="5"/>
+    <col width="77" customWidth="1" min="4" max="4"/>
+    <col width="58" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -3062,12 +3318,12 @@
       <c r="D2" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - BCA Lab by TM, VA)
- by LJ, RV, VA, NR, APR, TM</t>
+ by TM, SG, VA, APR, DR SARAVANAN K N, CHA</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by TM, VA                                                  </t>
+          <t xml:space="preserve">PYTHON by TM, VA                                        </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -3100,22 +3356,22 @@
       <c r="D3" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - BCA Lab by TM, VA)
- by LJ, RV, VA, NR, APR, TM</t>
+ by TM, SG, VA, APR, DR SARAVANAN K N, CHA</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by TM, VA                                                  </t>
+          <t xml:space="preserve">PYTHON by TM, VA                                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
         </is>
       </c>
     </row>
@@ -3137,12 +3393,12 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                    </t>
+          <t xml:space="preserve">LUNCH by                                                                   </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                          </t>
+          <t xml:space="preserve">LUNCH by                                                </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -3174,17 +3430,17 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS by RV                                                    </t>
+          <t xml:space="preserve">OS by RV                                                                   </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">language by                                                       </t>
+          <t xml:space="preserve">language by                                             </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -3211,13 +3467,13 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                                                   </t>
+          <t xml:space="preserve">MA by MAN                                                                  </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
           <t>MA (Lab - BSc Lab by MAN)
- by DR SARAVANAN KN, HU, RM, MAN, TM, BE</t>
+ by AMR, RV, MAN, SD, SME, FHP</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -3227,7 +3483,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -3244,18 +3500,18 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                                 </t>
+          <t xml:space="preserve">activity by                                                                </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
           <t>MA (Lab - BSc Lab by MAN)
- by DR SARAVANAN KN, HU, RM, MAN, TM, BE</t>
+ by AMR, RV, MAN, SD, SME, FHP</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -3287,12 +3543,12 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                  </t>
+          <t xml:space="preserve">BLOCKED by                                                                 </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                        </t>
+          <t xml:space="preserve">BLOCKED by                                              </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -3302,7 +3558,8 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by 
+BLOCKED by             </t>
         </is>
       </c>
     </row>
@@ -3324,12 +3581,12 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                  </t>
+          <t xml:space="preserve">BLOCKED by                                                                 </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                        </t>
+          <t xml:space="preserve">BLOCKED by                                              </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3338,6 +3595,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                                                 </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                              </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by                         </t>
         </is>
@@ -3354,7 +3648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3365,9 +3659,9 @@
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="73" customWidth="1" min="4" max="4"/>
+    <col width="64" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="55" customWidth="1" min="6" max="6"/>
+    <col width="57" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -3423,7 +3717,7 @@
       <c r="D2" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - MCA Lab by RES, HU)
- by LJ, DR NEWBEGIN, RV, HU, APR, RES</t>
+ by LJ, RES, RV, SD, HU, FHP</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -3434,12 +3728,12 @@
       <c r="F2" s="4" t="inlineStr">
         <is>
           <t>MA (Lab - BSc Lab by VKR)
- by VKR, HU, RM, SH, TM, BE</t>
+ by AMR, LJ, RV, VKR, RA, CHA</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                          </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA B SI            </t>
         </is>
       </c>
     </row>
@@ -3462,7 +3756,7 @@
       <c r="D3" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - MCA Lab by RES, HU)
- by LJ, DR NEWBEGIN, RV, HU, APR, RES</t>
+ by LJ, RES, RV, SD, HU, FHP</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -3473,7 +3767,7 @@
       <c r="F3" s="4" t="inlineStr">
         <is>
           <t>MA (Lab - BSc Lab by VKR)
- by VKR, HU, RM, SH, TM, BE</t>
+ by AMR, LJ, RV, VKR, RA, CHA</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -3500,7 +3794,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                               </t>
+          <t xml:space="preserve">LUNCH by                                                      </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -3510,7 +3804,7 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                             </t>
+          <t xml:space="preserve">LUNCH by                                               </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -3527,7 +3821,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS by APR                          </t>
+          <t xml:space="preserve">MA by VKR                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -3537,7 +3831,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                                                              </t>
+          <t xml:space="preserve">OS by APR                                                     </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3547,7 +3841,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA B SI                                </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -3569,12 +3863,12 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">OS by APR                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS by APR                                                              </t>
+          <t xml:space="preserve">MA by VKR                                                     </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -3584,12 +3878,12 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA B SI                                </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -3601,27 +3895,27 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">OS by APR                          </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LIBRARY by 3 BCA B                 </t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OS by APR                          </t>
-        </is>
-      </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                                            </t>
+          <t xml:space="preserve">activity by                                                   </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA B SI            </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">Free                                                   </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3648,7 +3942,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                             </t>
+          <t xml:space="preserve">BLOCKED by                                                    </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -3658,12 +3952,13 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                           </t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by 
+BLOCKED by             </t>
         </is>
       </c>
     </row>
@@ -3685,7 +3980,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                             </t>
+          <t xml:space="preserve">BLOCKED by                                                    </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -3695,10 +3990,47 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                           </t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                                    </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                             </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by                         </t>
         </is>
@@ -3715,7 +4047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3724,12 +4056,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="57" customWidth="1" min="2" max="2"/>
+    <col width="70" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="64" customWidth="1" min="4" max="4"/>
+    <col width="57" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="98" customWidth="1" min="6" max="6"/>
-    <col width="60" customWidth="1" min="7" max="7"/>
+    <col width="52" customWidth="1" min="6" max="6"/>
+    <col width="52" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3774,39 +4106,37 @@
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GA by VA
-BI by DR NEWBEGIN                             </t>
+BI by NEB                                                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GA by VA
-BI by DR NEWBEGIN         </t>
+BI by NEB                 </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by DR AMRUTHA
+          <t xml:space="preserve">MUL by AMR
 CS by CYN                                   </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by DR AMRUTHA
-CS by CYN        </t>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
           <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by DR NEWBEGIN)
- by SH, RM, VA, HU
- by SH, RM, VA, HU</t>
+BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
           <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by DR NEWBEGIN)</t>
+BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
     </row>
@@ -3818,7 +4148,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SME                                              </t>
+          <t xml:space="preserve">CN by SME                                                           </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -3828,7 +4158,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                                                     </t>
+          <t xml:space="preserve">MA by VKR                                              </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -3839,15 +4169,13 @@
       <c r="F3" s="4" t="inlineStr">
         <is>
           <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by DR NEWBEGIN)
- by SH, RM, VA, HU
- by SH, RM, VA, HU</t>
+BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
           <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by DR NEWBEGIN)</t>
+BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
     </row>
@@ -3859,32 +4187,32 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">LUNCH by                                                            </t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUNCH by                           </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LUNCH by                                               </t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                                                      </t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                           </t>
-        </is>
-      </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                                                        </t>
+          <t xml:space="preserve">LUNCH by                                          </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                                                 </t>
+          <t xml:space="preserve">MA by VKR                                         </t>
         </is>
       </c>
     </row>
@@ -3896,36 +4224,36 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by DR AMRUTHA
-CS by CYN                            </t>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN                                                </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by DR AMRUTHA
-CS by CYN        </t>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GA by VA
-BI by DR NEWBEGIN                                    </t>
+BI by NEB                                     </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GA by VA
-BI by DR NEWBEGIN         </t>
+BI by NEB                 </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                                                                                       </t>
+          <t xml:space="preserve">MA by VKR                                         </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SME                                                 </t>
+          <t xml:space="preserve">CN by SME                                         </t>
         </is>
       </c>
     </row>
@@ -3937,8 +4265,8 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BCA Lab by VKR)
- by KNS, VKR, CHA, SG, KR, SA</t>
+          <t>MA (Lab - MCA Lab by VKR)
+ by CYN, SA, VKR, VA, DR SARAVANAN K N, SD</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3949,7 +4277,7 @@
       <c r="D6" s="4" t="inlineStr">
         <is>
           <t>PRJ (Lab - BCA Lab by VA)
- by RV, VA, SME, DR AMRUTHA, RA, CYN</t>
+ by RES, RV, NEB, VA, APR, RA</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -3959,12 +4287,12 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SME                                                                                       </t>
+          <t xml:space="preserve">CN by SME                                         </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">Free                                              </t>
         </is>
       </c>
     </row>
@@ -3976,8 +4304,8 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BCA Lab by VKR)
- by KNS, VKR, CHA, SG, KR, SA</t>
+          <t>MA (Lab - MCA Lab by VKR)
+ by CYN, SA, VKR, VA, DR SARAVANAN K N, SD</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -3988,7 +4316,7 @@
       <c r="D7" s="4" t="inlineStr">
         <is>
           <t>PRJ (Lab - BCA Lab by VA)
- by RV, VA, SME, DR AMRUTHA, RA, CYN</t>
+ by RES, RV, NEB, VA, APR, RA</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -3998,12 +4326,12 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 5 BCA A                                                                              </t>
+          <t xml:space="preserve">LIBRARY by 5 BCA A                                </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
     </row>
@@ -4015,19 +4343,19 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">BLOCKED by                                                          </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                                                    </t>
-        </is>
-      </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by                         </t>
@@ -4035,12 +4363,13 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                                      </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">BLOCKED by 
+BLOCKED by                            </t>
         </is>
       </c>
     </row>
@@ -4052,19 +4381,19 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">BLOCKED by                                                          </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                                                    </t>
-        </is>
-      </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by                         </t>
@@ -4072,12 +4401,49 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                                      </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                                          </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                        </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
     </row>
@@ -4092,7 +4458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4101,12 +4467,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="57" customWidth="1" min="2" max="2"/>
+    <col width="59" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="64" customWidth="1" min="4" max="4"/>
+    <col width="51" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="90" customWidth="1" min="6" max="6"/>
-    <col width="60" customWidth="1" min="7" max="7"/>
+    <col width="52" customWidth="1" min="6" max="6"/>
+    <col width="52" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4151,39 +4517,37 @@
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GA by VA
-BI by DR NEWBEGIN                             </t>
+BI by NEB                                       </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GA by VA
-BI by DR NEWBEGIN         </t>
+BI by NEB                 </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by DR AMRUTHA
-CS by CYN                                   </t>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN                             </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by DR AMRUTHA
-CS by CYN        </t>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
           <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by DR NEWBEGIN)
- by SH, RM, VA
- by SH, RM, VA</t>
+BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
           <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by DR NEWBEGIN)</t>
+BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
     </row>
@@ -4195,7 +4559,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by RA                                               </t>
+          <t xml:space="preserve">CN by RA                                                 </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -4205,7 +4569,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                                                     </t>
+          <t xml:space="preserve">MA by MAN                                        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -4216,15 +4580,13 @@
       <c r="F3" s="4" t="inlineStr">
         <is>
           <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by DR NEWBEGIN)
- by SH, RM, VA
- by SH, RM, VA</t>
+BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
           <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by DR NEWBEGIN)</t>
+BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4598,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                               </t>
+          <t xml:space="preserve">LUNCH by                                                 </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -4246,7 +4608,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                      </t>
+          <t xml:space="preserve">LUNCH by                                         </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -4256,12 +4618,12 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                                                </t>
+          <t xml:space="preserve">LUNCH by                                          </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                                                 </t>
+          <t xml:space="preserve">MA by MAN                                         </t>
         </is>
       </c>
     </row>
@@ -4273,36 +4635,36 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by DR AMRUTHA
-CS by CYN                            </t>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN                                     </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by DR AMRUTHA
-CS by CYN        </t>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GA by VA
-BI by DR NEWBEGIN                                    </t>
+BI by NEB                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GA by VA
-BI by DR NEWBEGIN         </t>
+BI by NEB                 </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                                                                               </t>
+          <t xml:space="preserve">MA by MAN                                         </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by RA                                                  </t>
+          <t xml:space="preserve">CN by RA                                          </t>
         </is>
       </c>
     </row>
@@ -4314,8 +4676,8 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - MCA Lab by MAN)
- by KNS, CHA, SG, KR, SA, MAN</t>
+          <t>MA (Lab - BSc Lab by MAN)
+ by RES, NEB, KNS, RA, MAN, SME</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -4326,7 +4688,7 @@
       <c r="D6" s="4" t="inlineStr">
         <is>
           <t>PRJ (Lab - MCA Lab by SH)
- by RV, SME, DR AMRUTHA, RA, SH, CYN</t>
+ by SH, RM, BE, KNS, HU</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -4336,12 +4698,12 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by RA                                                                                </t>
+          <t xml:space="preserve">CN by RA                                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">Free                                              </t>
         </is>
       </c>
     </row>
@@ -4353,8 +4715,8 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - MCA Lab by MAN)
- by KNS, CHA, SG, KR, SA, MAN</t>
+          <t>MA (Lab - BSc Lab by MAN)
+ by RES, NEB, KNS, RA, MAN, SME</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4365,7 +4727,7 @@
       <c r="D7" s="4" t="inlineStr">
         <is>
           <t>PRJ (Lab - MCA Lab by SH)
- by RV, SME, DR AMRUTHA, RA, SH, CYN</t>
+ by SH, RM, BE, KNS, HU</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -4375,12 +4737,12 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 5 BCA B                                                                      </t>
+          <t xml:space="preserve">LIBRARY by 5 BCA B                                </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
     </row>
@@ -4392,7 +4754,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -4402,7 +4764,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                       </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -4412,12 +4774,13 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                              </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">BLOCKED by 
+BLOCKED by                            </t>
         </is>
       </c>
     </row>
@@ -4429,7 +4792,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -4439,7 +4802,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                       </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -4449,12 +4812,49 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                              </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                       </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                        </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
     </row>
@@ -4469,7 +4869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4478,10 +4878,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="59" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="56" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="61" customWidth="1" min="4" max="4"/>
+    <col width="56" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -4527,7 +4927,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -4537,12 +4937,12 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">BLOCKED by                                                 </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">BLOCKED by                                            </t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -4564,7 +4964,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -4574,12 +4974,12 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">BLOCKED by                                                 </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">BLOCKED by                                            </t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -4601,32 +5001,32 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by BE                                                </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, LJ                                         </t>
+          <t xml:space="preserve">BLOCKED by                                                 </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -4638,7 +5038,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1CS                                           </t>
+          <t xml:space="preserve">DCF by SR, LJ                      </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -4649,17 +5049,17 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                  </t>
+          <t xml:space="preserve">Free                                                       </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">language by                        </t>
+          <t xml:space="preserve">language by                                           </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DCF by SR, LJ                      </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -4676,22 +5076,22 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                   </t>
+          <t xml:space="preserve">HED by                             </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by LJ                          </t>
+          <t xml:space="preserve">MDC by                             </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                  </t>
+          <t xml:space="preserve">Free                                                       </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MDC by                                                </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -4713,28 +5113,27 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                 </t>
+          <t xml:space="preserve">DAS by BE                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">DCF by LJ                          </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by 
-activity by                                 </t>
+          <t xml:space="preserve">activity by                                                </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                                  </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -4751,34 +5150,32 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - MCA Lab by SR, LJ)
- by LJ, KNS, KR, NR, SR, SD</t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by BE                          </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - BCA Lab by BE)
- by VKR, RV, RA, CYN, SR, BE</t>
+          <t xml:space="preserve">LUNCH by                                                   </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, LJ                      </t>
+          <t xml:space="preserve">LUNCH by                                              </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -4790,24 +5187,24 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - MCA Lab by SR, LJ)
- by LJ, KNS, KR, NR, SR, SD</t>
+          <t xml:space="preserve">LIBRARY by 1CS                     </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS by BE                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - BCA Lab by BE)
- by VKR, RV, RA, CYN, SR, BE</t>
+          <t>DCF (Lab - BSc Lab by SR, LJ)
+ by SR, LJ, VKR, NEB, SD, SME</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>DAS (Lab - BSc Lab by BE)
+ by SR, RM, TM, RES, BE, KNS</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -4816,6 +5213,45 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>DCF (Lab - BSc Lab by SR, LJ)
+ by SR, LJ, VKR, NEB, SD, SME</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>DAS (Lab - BSc Lab by BE)
+ by SR, RM, TM, RES, BE, KNS</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by                         </t>
         </is>
@@ -4832,7 +5268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4841,9 +5277,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="89" customWidth="1" min="2" max="2"/>
+    <col width="64" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="63" customWidth="1" min="4" max="4"/>
+    <col width="57" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
@@ -4890,29 +5326,29 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>JAVA (Lab - BCA Lab by RES, DR SARAVANAN KN)
- by KNS, DR SARAVANAN KN, CHA, KR, SA, RES</t>
+          <t>JAVA (Lab - BCA Lab by RES, KNS)
+ by RES, SA, SG, KR, CHA, KNS</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by RES, DR SARAVANAN KN       </t>
+          <t xml:space="preserve">JAVA by RES, KNS                   </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
           <t>WAD (Lab - BSc Lab by BE)
- by DR SARAVANAN KN, RV, SH, RA, BE</t>
+ by SH, NEB, KNS, BE, RA, SME</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">INTERNSHIP by 3CS SI               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by RES, DR SARAVANAN KN       </t>
+          <t xml:space="preserve">JAVA by RES, KNS                   </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -4929,19 +5365,19 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>JAVA (Lab - BCA Lab by RES, DR SARAVANAN KN)
- by KNS, DR SARAVANAN KN, CHA, KR, SA, RES</t>
+          <t>JAVA (Lab - BCA Lab by RES, KNS)
+ by RES, SA, SG, KR, CHA, KNS</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by RES, DR SARAVANAN KN       </t>
+          <t xml:space="preserve">JAVA by RES, KNS                   </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
           <t>WAD (Lab - BSc Lab by BE)
- by DR SARAVANAN KN, RV, SH, RA, BE</t>
+ by SH, NEB, KNS, BE, RA, SME</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -4968,7 +5404,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                                               </t>
+          <t xml:space="preserve">LUNCH by                                                      </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -4978,7 +5414,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                     </t>
+          <t xml:space="preserve">LUNCH by                                               </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -5005,7 +5441,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD by BE                                                                              </t>
+          <t xml:space="preserve">WAD by BE                                                     </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5015,7 +5451,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                         </t>
+          <t xml:space="preserve">INTERNSHIP by 3CS SI                                   </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5042,17 +5478,17 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                                                 </t>
+          <t xml:space="preserve">HED by                                                        </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 3CM                     </t>
+          <t xml:space="preserve">INTERNSHIP by 3CS SI               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                         </t>
+          <t xml:space="preserve">Free                                                   </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -5067,7 +5503,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -5079,17 +5515,17 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                   </t>
+          <t xml:space="preserve">INTERNSHIP by 3CS SI                                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LIBRARY by 3CM                     </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                                  </t>
+          <t xml:space="preserve">activity by                                            </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -5116,7 +5552,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                             </t>
+          <t xml:space="preserve">BLOCKED by                                                    </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -5126,7 +5562,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                   </t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -5141,7 +5577,8 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by 
+BLOCKED by             </t>
         </is>
       </c>
     </row>
@@ -5153,7 +5590,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                             </t>
+          <t xml:space="preserve">BLOCKED by                                                    </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -5163,7 +5600,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                   </t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -5177,6 +5614,43 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                                    </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                             </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by                         </t>
         </is>
@@ -5193,7 +5667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5202,9 +5676,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="68" customWidth="1" min="2" max="2"/>
-    <col width="55" customWidth="1" min="3" max="3"/>
-    <col width="70" customWidth="1" min="4" max="4"/>
+    <col width="62" customWidth="1" min="2" max="2"/>
+    <col width="56" customWidth="1" min="3" max="3"/>
+    <col width="60" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
@@ -5251,17 +5725,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                        </t>
+          <t xml:space="preserve">BLOCKED by                                                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                           </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                          </t>
+          <t xml:space="preserve">BLOCKED by                                                </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -5288,17 +5762,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                        </t>
+          <t xml:space="preserve">BLOCKED by                                                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                           </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                          </t>
+          <t xml:space="preserve">BLOCKED by                                                </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -5325,34 +5799,32 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN)
- by DR NEWBEGIN, MN, SG, FHP, SR, SD</t>
+          <t xml:space="preserve">BLOCKED by                                                  </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                               </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - BSc Lab by FHP)
- by DR SARAVANAN KN, MN, BE, FHP, TM, RES</t>
+          <t xml:space="preserve">BLOCKED by                                                </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -5364,20 +5836,18 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN)
- by DR NEWBEGIN, MN, SG, FHP, SR, SD</t>
+          <t xml:space="preserve">WAD by TM                                                   </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MDC by 
-language by                                  </t>
+language by                                   </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - BSc Lab by FHP)
- by DR SARAVANAN KN, MN, BE, FHP, TM, RES</t>
+          <t xml:space="preserve">DCF by SR, MN                                             </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5404,22 +5874,22 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                            </t>
+          <t xml:space="preserve">HED by                                                      </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, MN                                        </t>
+          <t xml:space="preserve">MDC by                                                </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, MN                                                       </t>
+          <t xml:space="preserve">WAD by TM                                                 </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, MN                      </t>
+          <t xml:space="preserve">MDC by                             </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -5441,28 +5911,27 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                          </t>
+          <t xml:space="preserve">DAS by FHP                                                  </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                             </t>
+          <t xml:space="preserve">DCF by SR, MN                                         </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by 
-activity by                                               </t>
+          <t xml:space="preserve">activity by                                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">DCF by SR, MN                      </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -5479,33 +5948,32 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD by TM                                                         </t>
+          <t xml:space="preserve">LUNCH by                                                    </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>WAD (Lab - BSc Lab by TM)
- by SG, KR, NR, APR, TM, SD</t>
+          <t xml:space="preserve">LUNCH by                                              </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD by TM                                                           </t>
+          <t xml:space="preserve">LUNCH by                                                  </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by FHP                         </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -5517,23 +5985,25 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by FHP                                                        </t>
+          <t>DCF (Lab - BSc Lab by SR, MN)
+ by SR, AMR, VKR, NEB, MN, SME</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
           <t>WAD (Lab - BSc Lab by TM)
- by SG, KR, NR, APR, TM, SD</t>
+ by NR, TM, CYN, SG, KR, APR</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1CM                                                      </t>
+          <t>DAS (Lab - MCA Lab by FHP)
+ by AMR, RES, RA, MAN, KNS, FHP</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS by FHP                         </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -5542,6 +6012,46 @@
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>DCF (Lab - BSc Lab by SR, MN)
+ by SR, AMR, VKR, NEB, MN, SME</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAD (Lab - BSc Lab by TM)
+ by NR, TM, CYN, SG, KR, APR</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>DAS (Lab - MCA Lab by FHP)
+ by AMR, RES, RA, MAN, KNS, FHP</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIBRARY by 1CM                     </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by                         </t>
         </is>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -18,9 +18,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1CM" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CM" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5CME" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCA Lab" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCA Lab" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSc Lab" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCOM-I" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCOM-III" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCOM-II" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCA Lab" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCA Lab" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSc Lab" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,10 +465,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="61" customWidth="1" min="2" max="2"/>
+    <col width="56" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="57" customWidth="1" min="4" max="4"/>
-    <col width="69" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="52" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -511,7 +514,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -521,12 +524,12 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                                      </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -548,7 +551,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -558,12 +561,12 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                                      </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -585,7 +588,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -595,12 +598,12 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                                      </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -622,29 +625,28 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by NR                                                  </t>
+          <t xml:space="preserve">PSD by NR                                             </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by 
-language by                </t>
+          <t xml:space="preserve">MDC by                             </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - BSc Lab by NR)
- by NR, CYN, KR, SD, SME, FHP</t>
+          <t>PSD (Lab - BCA Lab by NR)
+ by SD, RM, NR, KR, SG</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">language by                                                        </t>
+          <t xml:space="preserve">MDC by                                            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by NR                          </t>
+          <t xml:space="preserve">English by                         </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -661,7 +663,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                     </t>
+          <t xml:space="preserve">HED by                                                </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -671,18 +673,18 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - BSc Lab by NR)
- by NR, CYN, KR, SD, SME, FHP</t>
+          <t>PSD (Lab - BCA Lab by NR)
+ by SD, RM, NR, KR, SG</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                                             </t>
+          <t xml:space="preserve">English by                                        </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by XYZ                       </t>
+          <t xml:space="preserve">PSD by NR                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -699,7 +701,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by KR                                                  </t>
+          <t xml:space="preserve">IWT by KR                                             </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -709,17 +711,17 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                            </t>
+          <t xml:space="preserve">activity by                                     </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by SA, CHA                                                     </t>
+          <t xml:space="preserve">OOP by SA, CHA                                    </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1BCAA                   </t>
+          <t xml:space="preserve">MATHS by XYZ                       </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -736,7 +738,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                   </t>
+          <t xml:space="preserve">LUNCH by                                              </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -746,12 +748,12 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                               </t>
+          <t xml:space="preserve">LUNCH by                                        </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                           </t>
+          <t xml:space="preserve">LUNCH by                                          </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -774,7 +776,7 @@
       <c r="B9" s="4" t="inlineStr">
         <is>
           <t>OOP (Lab - BCA Lab by SA, CHA)
- by NR, SA, SG, KR, APR, CHA</t>
+ by SA, MN, SD, SR, CHA</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -784,18 +786,18 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by SA, CHA                                         </t>
+          <t xml:space="preserve">OOP by SA, CHA                                  </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t>IWT (Lab - BCA Lab by KR)
- by LJ, RV, KR, DR SARAVANAN K N, CHA, SD</t>
+ by SD, RV, APR, NEB, KR</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LIBRARY by 1BCAA                   </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -813,7 +815,7 @@
       <c r="B10" s="4" t="inlineStr">
         <is>
           <t>OOP (Lab - BCA Lab by SA, CHA)
- by NR, SA, SG, KR, APR, CHA</t>
+ by SA, MN, SD, SR, CHA</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -823,13 +825,13 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by KR                                              </t>
+          <t xml:space="preserve">IWT by KR                                       </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
           <t>IWT (Lab - BCA Lab by KR)
- by LJ, RV, KR, DR SARAVANAN K N, CHA, SD</t>
+ by SD, RV, APR, NEB, KR</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -863,8 +865,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="74" customWidth="1" min="2" max="2"/>
-    <col width="71" customWidth="1" min="3" max="3"/>
+    <col width="43" customWidth="1" min="2" max="2"/>
+    <col width="54" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
@@ -913,12 +915,12 @@
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t>JAVA (Lab - MCA Lab by SR, MN)
- by SR, LJ, RV, MN, APR, DR SARAVANAN K N</t>
+ by SR, MN</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by SR, MN                                                       </t>
+          <t xml:space="preserve">JAVA by SR, MN                                      </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -951,12 +953,12 @@
       <c r="B3" s="4" t="inlineStr">
         <is>
           <t>JAVA (Lab - MCA Lab by SR, MN)
- by SR, LJ, RV, MN, APR, DR SARAVANAN K N</t>
+ by SR, MN</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by SR, MN                                                       </t>
+          <t xml:space="preserve">JAVA by SR, MN                                      </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -988,12 +990,12 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                                </t>
+          <t xml:space="preserve">LUNCH by                                 </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                             </t>
+          <t xml:space="preserve">LUNCH by                                            </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -1025,13 +1027,13 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by RM                                                            </t>
+          <t xml:space="preserve">PYTHON by RM                             </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - BSc Lab by RM)
- by NR, RM, SA, SG, KR, DR SARAVANAN K N</t>
+ by VA, RM, KNS, NR, LJ</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1063,13 +1065,13 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                                  </t>
+          <t xml:space="preserve">HED by                                   </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - BSc Lab by RM)
- by NR, RM, SA, SG, KR, DR SARAVANAN K N</t>
+ by VA, RM, KNS, NR, LJ</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1101,12 +1103,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CM SI                                                    </t>
+          <t xml:space="preserve">INTERNSHIP by 3CM SI                     </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CM SI                                                 </t>
+          <t xml:space="preserve">INTERNSHIP by 3CM SI                                </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1138,12 +1140,12 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                              </t>
+          <t xml:space="preserve">BLOCKED by                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                           </t>
+          <t xml:space="preserve">BLOCKED by                                          </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1176,12 +1178,12 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                              </t>
+          <t xml:space="preserve">BLOCKED by                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                           </t>
+          <t xml:space="preserve">BLOCKED by                                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1213,12 +1215,12 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                              </t>
+          <t xml:space="preserve">BLOCKED by                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                           </t>
+          <t xml:space="preserve">BLOCKED by                                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -1262,11 +1264,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="78" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="57" customWidth="1" min="6" max="6"/>
+    <col width="43" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1311,7 +1313,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                                                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -1326,12 +1328,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -1348,7 +1350,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                                                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -1363,12 +1365,12 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -1385,7 +1387,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                                                  </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -1400,12 +1402,12 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                               </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -1422,9 +1424,9 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>WT (Lab - BCA Lab by HU)
-GA (Lab - BCA Lab by CHA)
- by SH, SG, MN, KR, HU, FHP</t>
+          <t>WT (Lab - BSc Lab by HU)
+GA (Lab - BSc Lab by CHA)
+ by SD, CYN, FHP, HU, RES</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -1442,13 +1444,12 @@
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">WT by HU
-GA by CHA                 </t>
+GA by CHA                       </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>DA (Lab - BCA Lab by AMR)
- by RM, AMR, TM, RES, BE, KNS</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -1465,9 +1466,9 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>WT (Lab - BCA Lab by HU)
-GA (Lab - BCA Lab by CHA)
- by SH, SG, MN, KR, HU, FHP</t>
+          <t>WT (Lab - BSc Lab by HU)
+GA (Lab - BSc Lab by CHA)
+ by SD, CYN, FHP, HU, RES</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1482,13 +1483,13 @@
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>DA (Lab - BSc Lab by AMR)
+ by SH, AMR, TM</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>DA (Lab - BCA Lab by AMR)
- by RM, AMR, TM, RES, BE, KNS</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1505,7 +1506,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA by AMR                                                                     </t>
+          <t xml:space="preserve">LIBRARY by 5CME                                                             </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1520,12 +1521,13 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>DA (Lab - BSc Lab by AMR)
+ by SH, AMR, TM</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -1542,7 +1544,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                                      </t>
+          <t xml:space="preserve">LUNCH by                                                                    </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -1557,12 +1559,12 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">LUNCH by                                 </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LUNCH by                           </t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                                               </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -1579,7 +1581,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 5CME                                                               </t>
+          <t xml:space="preserve">DA by AMR                                                                   </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -1594,12 +1596,12 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                     </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -1616,7 +1618,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                          </t>
+          <t xml:space="preserve">Free                                                                        </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -1631,12 +1633,12 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                     </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -1665,12 +1667,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="68" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
-    <col width="44" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="71" customWidth="1" min="6" max="6"/>
-    <col width="71" customWidth="1" min="7" max="7"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1714,17 +1716,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, KNS) in 3CS                           </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - BCA Lab by TM, VA) in 3BCA A</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -1734,14 +1736,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA) in 5BCA A
-GA (Lab - BCA Lab by VA) in 5BCA B</t>
+          <t xml:space="preserve">BCOM-I by KR                       </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA) in 5BCA A
-GA (Lab - BCA Lab by VA) in 5BCA B</t>
+          <t xml:space="preserve">BCOM-I by KR, FHP, CYN             </t>
         </is>
       </c>
     </row>
@@ -1753,17 +1753,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, KNS) in 3CS                           </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - BCA Lab by TM, VA) in 3BCA A</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -1773,14 +1773,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA) in 5BCA A
-GA (Lab - BCA Lab by VA) in 5BCA B</t>
+          <t xml:space="preserve">BCOM-I by KR                       </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA) in 5BCA A
-GA (Lab - BCA Lab by VA) in 5BCA B</t>
+          <t xml:space="preserve">BCOM-I by KR, FHP, CYN             </t>
         </is>
       </c>
     </row>
@@ -1792,32 +1790,32 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                              </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                      </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -1829,18 +1827,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>WT (Lab - BCA Lab by HU) in 5CME
-GA (Lab - BCA Lab by CHA) in 5CME</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                      </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1850,12 +1847,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (Lab - BCA Lab by AMR) in 5CME                                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -1867,33 +1864,32 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>WT (Lab - BCA Lab by HU) in 5CME
-GA (Lab - BCA Lab by CHA) in 5CME</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - BCA Lab by VKR) in 5BCA A     </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (Lab - BCA Lab by VA) in 5BCA A       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>PRJ (Lab - BCA Lab by VA) in 5BCA A</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (Lab - BCA Lab by AMR) in 5CME                                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -1905,32 +1901,32 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - BCA Lab by VKR) in 5BCA A     </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (Lab - BCA Lab by VA) in 5BCA A       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>PRJ (Lab - BCA Lab by VA) in 5BCA A</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -1942,32 +1938,33 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                              </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                      </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">BLOCKED by 
+BLOCKED by             </t>
         </is>
       </c>
     </row>
@@ -1979,32 +1976,32 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                          </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - BCA Lab by SA, CHA) in 1BCA A</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (Lab - BCA Lab by APR) in 1BCA B      </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - BCA Lab by KR) in 1BCA A</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -2016,32 +2013,32 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                          </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - BCA Lab by SA, CHA) in 1BCA A</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (Lab - BCA Lab by APR) in 1BCA B      </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - BCA Lab by KR) in 1BCA A</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                 </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -2065,12 +2062,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="55" customWidth="1" min="2" max="2"/>
-    <col width="55" customWidth="1" min="3" max="3"/>
-    <col width="45" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="73" customWidth="1" min="6" max="6"/>
-    <col width="73" customWidth="1" min="7" max="7"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2114,17 +2111,17 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (Lab - MCA Lab by SR, MN) in 3CM                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - MCA Lab by RES, HU) in 3BCA B</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -2134,14 +2131,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
-BI (Lab - MCA Lab by NEB) in 5BCA B</t>
+          <t xml:space="preserve">BCOM-III by RM                     </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
-BI (Lab - MCA Lab by NEB) in 5BCA B</t>
+          <t xml:space="preserve">BCOM-III by RM, AMR                </t>
         </is>
       </c>
     </row>
@@ -2153,17 +2148,17 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA (Lab - MCA Lab by SR, MN) in 3CM                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - MCA Lab by RES, HU) in 3BCA B</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -2173,14 +2168,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
-BI (Lab - MCA Lab by NEB) in 5BCA B</t>
+          <t xml:space="preserve">BCOM-III by RM                     </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
-BI (Lab - MCA Lab by NEB) in 5BCA B</t>
+          <t xml:space="preserve">BCOM-III by RM, AMR                </t>
         </is>
       </c>
     </row>
@@ -2192,32 +2185,32 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                       </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2229,17 +2222,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2249,12 +2242,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2266,32 +2259,32 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 5BCA A                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (Lab - MCA Lab by SH) in 5BCA B        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>PRJ (Lab - MCA Lab by SH) in 5BCA B</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2303,32 +2296,32 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 5BCA A                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (Lab - MCA Lab by SH) in 5BCA B        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>PRJ (Lab - MCA Lab by SH) in 5BCA B</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -2340,32 +2333,33 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                       </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">BLOCKED by 
+BLOCKED by             </t>
         </is>
       </c>
     </row>
@@ -2377,32 +2371,32 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ) in 1BCA B</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ) in 1BCA B</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - MCA Lab by FHP) in 1CM          </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - MCA Lab by SG) in 1BCA B</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -2414,32 +2408,32 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ) in 1BCA B</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ) in 1BCA B</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - MCA Lab by FHP) in 1CM          </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - MCA Lab by SG) in 1BCA B</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                   </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -2463,9 +2457,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="38" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
@@ -2512,7 +2506,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -2522,7 +2516,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by BE) in 3CS    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -2532,12 +2526,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BSc Lab by VKR) in 3BCA B</t>
+          <t xml:space="preserve">BCOM-II by SK                      </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II by SK, SG, SME             </t>
         </is>
       </c>
     </row>
@@ -2549,7 +2543,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -2559,7 +2553,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by BE) in 3CS    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -2569,12 +2563,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BSc Lab by VKR) in 3BCA B</t>
+          <t xml:space="preserve">BCOM-II by SK                      </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BCOM-II by SK, SG, SME             </t>
         </is>
       </c>
     </row>
@@ -2586,27 +2580,27 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -2623,17 +2617,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - BSc Lab by RM) in 3CM</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (Lab - BSc Lab by NR) in 1BCA A </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2660,22 +2654,22 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - BSc Lab by MAN) in 5BCA B </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - BSc Lab by RM) in 3CM</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (Lab - BSc Lab by NR) in 1BCA A </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BSc Lab by MAN) in 3BCA A</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -2697,7 +2691,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - BSc Lab by MAN) in 5BCA B </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -2707,12 +2701,12 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BSc Lab by MAN) in 3BCA A</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -2722,7 +2716,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -2734,32 +2728,33 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by 
+BLOCKED by             </t>
         </is>
       </c>
     </row>
@@ -2771,32 +2766,32 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM   </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, LJ) in 1CS</t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
     </row>
@@ -2808,27 +2803,1219 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="71" customWidth="1" min="2" max="2"/>
+    <col width="71" customWidth="1" min="3" max="3"/>
+    <col width="44" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Hour 1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, KNS) in 3CS                              </t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>GA (Lab - BCA Lab by VA) in 5BCA A
+GA (Lab - BCA Lab by VA) in 5BCA B</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>PYTHON (Lab - BCA Lab by TM, VA) in 3BCA A</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hour 2</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, KNS) in 3CS                              </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>GA (Lab - BCA Lab by VA) in 5BCA A
+GA (Lab - BCA Lab by VA) in 5BCA B</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>PYTHON (Lab - BCA Lab by TM, VA) in 3BCA A</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>PRJ (Lab - BCA Lab by VA) in 5BCA A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hour 3</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                 </t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                 </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                      </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>PRJ (Lab - BCA Lab by VA) in 5BCA A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Hour 4</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>GA (Lab - BCA Lab by VA) in 5BCA A
+GA (Lab - BCA Lab by VA) in 5BCA B</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                 </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A       </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>MA (Lab - BCA Lab by VKR) in 5BCA A</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>GA (Lab - BCA Lab by VA) in 5BCA A
+GA (Lab - BCA Lab by VA) in 5BCA B</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (Lab - BCA Lab by MAN) in 3BCA A                                  </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A       </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>MA (Lab - BCA Lab by VKR) in 5BCA A</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>MA (Lab - BCA Lab by VKR) in 5BCA A</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Hour 6</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                 </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (Lab - BCA Lab by MAN) in 3BCA A                                  </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                      </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>MA (Lab - BCA Lab by VKR) in 5BCA A</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Hour 7</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                 </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                 </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                      </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Hour 8</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                      </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>IWT (Lab - BCA Lab by KR) in 1BCA A</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                      </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>IWT (Lab - BCA Lab by KR) in 1BCA A</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="73" customWidth="1" min="2" max="2"/>
+    <col width="73" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Hour 1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVA (Lab - MCA Lab by SR, MN) in 3CM                                  </t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>PYTHON (Lab - MCA Lab by RES, HU) in 3BCA B</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                    </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hour 2</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAVA (Lab - MCA Lab by SR, MN) in 3CM                                  </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>PYTHON (Lab - MCA Lab by RES, HU) in 3BCA B</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                    </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>PRJ (Lab - MCA Lab by SH) in 5BCA B</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hour 3</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                   </t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                   </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                       </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                    </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>PRJ (Lab - MCA Lab by SH) in 5BCA B</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Hour 4</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                   </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B   </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                    </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>MA (Lab - MCA Lab by MAN) in 5BCA B</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 3BCA B                                    </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B   </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B     </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>MA (Lab - MCA Lab by MAN) in 5BCA B</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Hour 6</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                   </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 3BCA B                                    </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                       </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B     </t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Hour 7</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                   </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                                   </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                       </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                    </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Hour 8</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSD (Lab - MCA Lab by APR) in 1BCA B                                   </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IWT (Lab - MCA Lab by SG) in 1BCA B                                    </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                       </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSD (Lab - MCA Lab by APR) in 1BCA B                                   </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IWT (Lab - MCA Lab by SG) in 1BCA B                                    </t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                       </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="68" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="38" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="38" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Hour 1</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                              </t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAD (Lab - BSc Lab by BE) in 3CS    </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hour 2</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                              </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAD (Lab - BSc Lab by BE) in 3CS    </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hour 3</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                              </t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                </t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Hour 4</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>WT (Lab - BSc Lab by HU) in 5CME
+GA (Lab - BSc Lab by CHA) in 5CME</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>PYTHON (Lab - BSc Lab by RM) in 3CM</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
           <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
         </is>
       </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>WT (Lab - BSc Lab by HU) in 5CME
+GA (Lab - BSc Lab by CHA) in 5CME</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>PYTHON (Lab - BSc Lab by RM) in 3CM</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DA (Lab - BSc Lab by AMR) in 5CME  </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>DCF (Lab - BSc Lab by SR, LJ) in 1CS</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Hour 6</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                              </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DA (Lab - BSc Lab by AMR) in 5CME  </t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr">
+        <is>
+          <t>DCF (Lab - BSc Lab by SR, LJ) in 1CS</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Hour 7</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                                              </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Hour 8</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM                                  </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS (Lab - BSc Lab by FHP) in 1CM  </t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Hour 9</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM                                  </t>
+        </is>
+      </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM   </t>
+          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, LJ) in 1CS</t>
+          <t xml:space="preserve">Free                                </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
+          <t xml:space="preserve">DAS (Lab - BSc Lab by FHP) in 1CM  </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -2857,10 +4044,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="88" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
-    <col width="71" customWidth="1" min="4" max="4"/>
-    <col width="58" customWidth="1" min="5" max="5"/>
+    <col width="56" customWidth="1" min="2" max="2"/>
+    <col width="52" customWidth="1" min="3" max="3"/>
+    <col width="56" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -2906,22 +4093,22 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                            </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                 </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                           </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                              </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -2943,22 +4130,22 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                            </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                 </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                           </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                              </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -2980,22 +4167,22 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                            </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                 </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                           </t>
+          <t xml:space="preserve">BLOCKED by                                            </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                              </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -3017,28 +4204,28 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by APR                                                                            </t>
+          <t xml:space="preserve">OOP by KNS, LJ                                        </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by 
-language by                        </t>
+          <t xml:space="preserve">MDC by                                            </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by DR SARAVANAN K N, LJ                                          </t>
+          <t>OOP (Lab - MCA Lab by KNS, LJ)
+ by SA, TM, KNS, SH, LJ</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">language by                                             </t>
+          <t xml:space="preserve">MDC by                             </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by APR                         </t>
+          <t xml:space="preserve">English by                         </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -3055,27 +4242,28 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                                                </t>
+          <t xml:space="preserve">HED by                                                </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                     </t>
+          <t xml:space="preserve">MDC by                                            </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by SG                                                            </t>
+          <t>OOP (Lab - MCA Lab by KNS, LJ)
+ by SA, TM, KNS, SH, LJ</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                                  </t>
+          <t xml:space="preserve">English by                         </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by TEMP                      </t>
+          <t xml:space="preserve">PSD by APR                         </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3092,27 +4280,27 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by SG                                                                             </t>
+          <t xml:space="preserve">IWT by SG                                             </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by APR                                 </t>
+          <t xml:space="preserve">OOP by KNS, LJ                                    </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                                          </t>
+          <t xml:space="preserve">activity by                                           </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by DR SARAVANAN K N, LJ                             </t>
+          <t xml:space="preserve">PSD by APR                         </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1BCA B                  </t>
+          <t xml:space="preserve">MATHS by TEMP                      </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3129,22 +4317,22 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                                              </t>
+          <t xml:space="preserve">LUNCH by                                              </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                   </t>
+          <t xml:space="preserve">LUNCH by                                          </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                             </t>
+          <t xml:space="preserve">LUNCH by                                              </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -3166,30 +4354,29 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ)
- by LJ, CYN, RV, DR SARAVANAN K N, SD, FHP</t>
+          <t>PSD (Lab - MCA Lab by APR)
+ by MAN, VKR, CYN, FHP, APR</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ)</t>
+          <t>IWT (Lab - MCA Lab by SG)
+ by SR, SD, CYN, FHP, SG</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - BCA Lab by APR)
- by NR, CYN, RV, SG, DR SARAVANAN K N, APR</t>
+          <t xml:space="preserve">PSD by APR                                            </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - MCA Lab by SG)
- by AMR, VKR, SG, RA, MAN, SME</t>
+          <t xml:space="preserve">OOP (Lab - MCA Lab by KNS, LJ)     </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">LIBRARY by 1BCA B                  </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -3206,25 +4393,24 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ)
- by LJ, CYN, RV, DR SARAVANAN K N, SD, FHP</t>
+          <t>PSD (Lab - MCA Lab by APR)
+ by MAN, VKR, CYN, FHP, APR</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by DR SARAVANAN K N, LJ)</t>
+          <t>IWT (Lab - MCA Lab by SG)
+ by SR, SD, CYN, FHP, SG</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - BCA Lab by APR)
- by NR, CYN, RV, SG, DR SARAVANAN K N, APR</t>
+          <t xml:space="preserve">IWT by SG                                             </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - MCA Lab by SG)
- by AMR, VKR, SG, RA, MAN, SME</t>
+          <t xml:space="preserve">OOP (Lab - MCA Lab by KNS, LJ)     </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -3259,9 +4445,9 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="77" customWidth="1" min="4" max="4"/>
-    <col width="58" customWidth="1" min="5" max="5"/>
+    <col width="54" customWidth="1" min="3" max="3"/>
+    <col width="57" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -3312,18 +4498,18 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SD, NR                       </t>
+          <t xml:space="preserve">CN by SD, NR                                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - BCA Lab by TM, VA)
- by TM, SG, VA, APR, DR SARAVANAN K N, CHA</t>
+ by SD, TM, RV, VA, NR</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by TM, VA                                        </t>
+          <t xml:space="preserve">PYTHON by TM, VA                   </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -3333,7 +4519,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                          </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
         </is>
       </c>
     </row>
@@ -3350,18 +4536,18 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SD, NR                       </t>
+          <t xml:space="preserve">CN by SD, NR                                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - BCA Lab by TM, VA)
- by TM, SG, VA, APR, DR SARAVANAN K N, CHA</t>
+ by SD, TM, RV, VA, NR</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by TM, VA                                        </t>
+          <t xml:space="preserve">PYTHON by TM, VA                   </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -3371,7 +4557,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -3388,17 +4574,17 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">LUNCH by                                            </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUNCH by                                               </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LUNCH by                           </t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                                                                   </t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                                                </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -3425,17 +4611,17 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">language by                                         </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OS by RV                                               </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">language by                        </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OS by RV                                                                   </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">language by                                             </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -3462,23 +4648,23 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
+          <t>MA (Lab - BCA Lab by MAN)
+ by SD, MAN, CYN, FHP, RES</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA by MAN                                              </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">OS by RV                           </t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA by MAN                                                                  </t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - BSc Lab by MAN)
- by AMR, RV, MAN, SD, SME, FHP</t>
-        </is>
-      </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3495,23 +4681,23 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">MA by MAN                          </t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>MA (Lab - BCA Lab by MAN)
+ by SD, MAN, CYN, FHP, RES</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">activity by                                            </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LIBRARY by 3 BCA A                 </t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">activity by                                                                </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - BSc Lab by MAN)
- by AMR, RV, MAN, SD, SME, FHP</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -3538,17 +4724,17 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                          </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                 </t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                              </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -3576,17 +4762,17 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                 </t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                              </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3613,17 +4799,17 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                 </t>
+          <t xml:space="preserve">BLOCKED by                                             </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                              </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -3658,10 +4844,10 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="64" customWidth="1" min="4" max="4"/>
+    <col width="53" customWidth="1" min="3" max="3"/>
+    <col width="61" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="57" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -3711,13 +4897,13 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by FHP, CYN                     </t>
+          <t xml:space="preserve">CN by FHP, CYN                                     </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - MCA Lab by RES, HU)
- by LJ, RES, RV, SD, HU, FHP</t>
+ by HU, APR, LJ, NEB, RES</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -3727,8 +4913,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BSc Lab by VKR)
- by AMR, LJ, RV, VKR, RA, CHA</t>
+          <t xml:space="preserve">MA by VKR                          </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -3750,13 +4935,13 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by FHP, CYN                     </t>
+          <t xml:space="preserve">CN by FHP, CYN                                     </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
           <t>PYTHON (Lab - MCA Lab by RES, HU)
- by LJ, RES, RV, SD, HU, FHP</t>
+ by HU, APR, LJ, NEB, RES</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -3766,8 +4951,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BSc Lab by VKR)
- by AMR, LJ, RV, VKR, RA, CHA</t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA B SI            </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -3789,22 +4973,22 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">LUNCH by                                           </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LUNCH by                                                   </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                                                      </t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">LUNCH by                           </t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                                               </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -3821,27 +5005,27 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                          </t>
+          <t xml:space="preserve">OS by APR                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">language by                                        </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OS by APR                                                  </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">language by                        </t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OS by APR                                                     </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">language by                        </t>
-        </is>
-      </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA B SI                                </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA B SI            </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -3863,22 +5047,23 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
+          <t>MA (Lab - MCA Lab by VKR)
+ by VKR, HU, APR, RV, NEB</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA by VKR                                                  </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">OS by APR                          </t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA by VKR                                                     </t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA by VKR                          </t>
-        </is>
-      </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA B SI                                </t>
+          <t xml:space="preserve">INTERNSHIP by 3BCA B SI            </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3895,27 +5080,28 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS by APR                          </t>
+          <t xml:space="preserve">MA by VKR                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
+          <t>MA (Lab - MCA Lab by VKR)
+ by VKR, HU, APR, RV, NEB</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">activity by                                                </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LIBRARY by 3 BCA B                 </t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">activity by                                                   </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA B SI            </t>
-        </is>
-      </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3937,12 +5123,12 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                         </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                                 </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -3952,7 +5138,7 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -3975,12 +5161,12 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                         </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                                 </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -3990,7 +5176,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -4012,12 +5198,12 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                         </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                                 </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -4027,7 +5213,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -4057,11 +5243,11 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="70" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="57" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="52" customWidth="1" min="6" max="6"/>
-    <col width="52" customWidth="1" min="7" max="7"/>
+    <col width="52" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="52" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="51" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4105,77 +5291,76 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                                                  </t>
+          <t xml:space="preserve">MA by VKR                                                           </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>GA (Lab - BCA Lab by VA)
+BI (Lab - MCA Lab by NEB)</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN               </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN                              </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GA by VA
 BI by NEB                 </t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN                                   </t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN               </t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GA by VA
+BI by NEB                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hour 2</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA by VKR                                                           </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>GA (Lab - BCA Lab by VA)
 BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Hour 2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CN by SME                                                           </t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA by VKR                          </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CN by SME                                         </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CN by SME                          </t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA by VKR                                              </t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA by VKR                          </t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)</t>
-        </is>
-      </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)</t>
+          <t>PRJ (Lab - BCA Lab by VA)
+ by APR, VA, RV, BE, LJ</t>
         </is>
       </c>
     </row>
@@ -4192,27 +5377,28 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">LUNCH by                                          </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                                               </t>
-        </is>
-      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">LUNCH by                                          </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                                          </t>
-        </is>
-      </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                                         </t>
+          <t>PRJ (Lab - BCA Lab by VA)
+ by APR, VA, RV, BE, LJ</t>
         </is>
       </c>
     </row>
@@ -4224,114 +5410,116 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
+          <t>GA (Lab - BCA Lab by VA)
+BI (Lab - MCA Lab by NEB)
+ by MAN, NEB, VKR</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN                              </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GA by VA
+BI by NEB                 </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GA by VA
+BI by NEB                                </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (Lab - BCA Lab by VKR)          </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA by VKR                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>GA (Lab - BCA Lab by VA)
+BI (Lab - MCA Lab by NEB)
+ by MAN, NEB, VKR</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CN by SME                                         </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CN by SME                          </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>MA (Lab - BCA Lab by VKR)
+ by VKR, HU, RM, BE, NEB</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (Lab - BCA Lab by VKR)          </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                             </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Hour 6</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">MUL by AMR
 CS by CYN                                                </t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN               </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                                     </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                 </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA by VKR                                         </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CN by SME                                         </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Hour 5</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - MCA Lab by VKR)
- by CYN, SA, VKR, VA, DR SARAVANAN K N, SD</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA (Lab - BCA Lab by VKR)          </t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>PRJ (Lab - BCA Lab by VA)
- by RES, RV, NEB, VA, APR, RA</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PRJ (Lab - BCA Lab by VA)          </t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CN by SME                                         </t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                              </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Hour 6</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - MCA Lab by VKR)
- by CYN, SA, VKR, VA, DR SARAVANAN K N, SD</t>
-        </is>
-      </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - BCA Lab by VKR)          </t>
+          <t xml:space="preserve">PRJ by VA                                         </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>PRJ (Lab - BCA Lab by VA)
- by RES, RV, NEB, VA, APR, RA</t>
+          <t xml:space="preserve">activity by                        </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (Lab - BCA Lab by VA)          </t>
+          <t>MA (Lab - BCA Lab by VKR)
+ by VKR, HU, RM, BE, NEB</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 5 BCA A                                </t>
+          <t xml:space="preserve">PRJ by VA                          </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve">BLOCKED by                                       </t>
         </is>
       </c>
     </row>
@@ -4348,28 +5536,28 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by 
-BLOCKED by                            </t>
+BLOCKED by                           </t>
         </is>
       </c>
     </row>
@@ -4386,27 +5574,27 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve">BLOCKED by                                       </t>
         </is>
       </c>
     </row>
@@ -4423,27 +5611,27 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve">BLOCKED by                                       </t>
         </is>
       </c>
     </row>
@@ -4468,11 +5656,11 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="59" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="52" customWidth="1" min="6" max="6"/>
-    <col width="52" customWidth="1" min="7" max="7"/>
+    <col width="52" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="52" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="51" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4516,77 +5704,76 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                                       </t>
+          <t xml:space="preserve">MA by MAN                                                </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>GA (Lab - BCA Lab by VA)
+BI (Lab - MCA Lab by NEB)</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN               </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN                              </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GA by VA
 BI by NEB                 </t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN                             </t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN               </t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GA by VA
+BI by NEB                               </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Hour 2</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA by MAN                                                </t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>GA (Lab - BCA Lab by VA)
 BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Hour 2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CN by RA                                                 </t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA by MAN                          </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CN by RA                                          </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CN by RA                           </t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA by MAN                                        </t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA by MAN                          </t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)</t>
-        </is>
-      </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)</t>
+          <t>PRJ (Lab - MCA Lab by SH)
+ by SA, RA, TM, SH, CHA</t>
         </is>
       </c>
     </row>
@@ -4603,27 +5790,28 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">LUNCH by                                          </t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                                         </t>
-        </is>
-      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">LUNCH by                                          </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                                          </t>
-        </is>
-      </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                                         </t>
+          <t>PRJ (Lab - MCA Lab by SH)
+ by SA, RA, TM, SH, CHA</t>
         </is>
       </c>
     </row>
@@ -4635,114 +5823,116 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
+          <t>GA (Lab - BCA Lab by VA)
+BI (Lab - MCA Lab by NEB)
+ by VA</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MUL by AMR
+CS by CYN                              </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GA by VA
+BI by NEB                 </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GA by VA
+BI by NEB                                </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (Lab - MCA Lab by MAN)          </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA by MAN                                        </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Hour 5</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>GA (Lab - BCA Lab by VA)
+BI (Lab - MCA Lab by NEB)
+ by VA</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CN by RA                                          </t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CN by RA                           </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>MA (Lab - MCA Lab by MAN)
+ by RA, MAN, SME, KR, SG</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MA (Lab - MCA Lab by MAN)          </t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                                             </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Hour 6</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">MUL by AMR
 CS by CYN                                     </t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN               </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                               </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                 </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA by MAN                                         </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CN by RA                                          </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Hour 5</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - BSc Lab by MAN)
- by RES, NEB, KNS, RA, MAN, SME</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN)          </t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>PRJ (Lab - MCA Lab by SH)
- by SH, RM, BE, KNS, HU</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PRJ (Lab - MCA Lab by SH)          </t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CN by RA                                          </t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                              </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Hour 6</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - BSc Lab by MAN)
- by RES, NEB, KNS, RA, MAN, SME</t>
-        </is>
-      </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN)          </t>
+          <t xml:space="preserve">PRJ by SH                                         </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>PRJ (Lab - MCA Lab by SH)
- by SH, RM, BE, KNS, HU</t>
+          <t xml:space="preserve">activity by                        </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ (Lab - MCA Lab by SH)          </t>
+          <t>MA (Lab - MCA Lab by MAN)
+ by RA, MAN, SME, KR, SG</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 5 BCA B                                </t>
+          <t xml:space="preserve">PRJ by SH                          </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve">BLOCKED by                                       </t>
         </is>
       </c>
     </row>
@@ -4759,28 +5949,28 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                       </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">BLOCKED by 
-BLOCKED by                            </t>
+BLOCKED by                           </t>
         </is>
       </c>
     </row>
@@ -4797,27 +5987,27 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                        </t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">BLOCKED by                                       </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
     </row>
@@ -4834,27 +6024,27 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                                        </t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BLOCKED by                         </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">BLOCKED by                                       </t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
     </row>
@@ -4879,10 +6069,10 @@
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="61" customWidth="1" min="4" max="4"/>
-    <col width="56" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="52" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="55" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -4932,22 +6122,22 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                           </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -4969,22 +6159,22 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                           </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -5006,22 +6196,22 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                           </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -5038,33 +6228,32 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">LIBRARY by 1CS                     </t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MDC by                                            </t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DAS by BE                          </t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MDC by                             </t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">English by                                           </t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">DCF by SR, LJ                      </t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MDC by 
-language by                </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                       </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">language by                                           </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DCF by SR, LJ                      </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -5081,22 +6270,23 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve">MDC by                                            </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                                </t>
+          <t xml:space="preserve">English by                         </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>DCF (Lab - BSc Lab by SR, LJ)
+ by SR, HU, RV, LJ, NEB</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -5113,27 +6303,28 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by BE                          </t>
+          <t xml:space="preserve">DCF by SR, LJ                      </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                                              </t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">activity by                        </t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">DCF by LJ                          </t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">activity by                                                </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                  </t>
-        </is>
-      </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>DCF (Lab - BSc Lab by SR, LJ)
+ by SR, HU, RV, LJ, NEB</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -5155,22 +6346,22 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">LUNCH by                                          </t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                                                   </t>
-        </is>
-      </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                              </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">LUNCH by                                             </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -5187,29 +6378,28 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1CS                     </t>
+          <t xml:space="preserve">DAS by BE                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by BE                          </t>
+          <t>DAS (Lab - BSc Lab by BE)
+ by RV, KNS, BE, NR, RES</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, LJ)
- by SR, LJ, VKR, NEB, SD, SME</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - BSc Lab by BE)
- by SR, RM, TM, RES, BE, KNS</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -5231,24 +6421,23 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>DAS (Lab - BSc Lab by BE)
+ by RV, KNS, BE, NR, RES</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, LJ)
- by SR, LJ, VKR, NEB, SD, SME</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - BSc Lab by BE)
- by SR, RM, TM, RES, BE, KNS</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -5277,9 +6466,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="64" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="57" customWidth="1" min="4" max="4"/>
+    <col width="51" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
@@ -5327,7 +6516,7 @@
       <c r="B2" s="4" t="inlineStr">
         <is>
           <t>JAVA (Lab - BCA Lab by RES, KNS)
- by RES, SA, SG, KR, CHA, KNS</t>
+ by KNS, RES</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -5338,7 +6527,7 @@
       <c r="D2" s="4" t="inlineStr">
         <is>
           <t>WAD (Lab - BSc Lab by BE)
- by SH, NEB, KNS, BE, RA, SME</t>
+ by SA, CHA, BE, KR, SG</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -5366,7 +6555,7 @@
       <c r="B3" s="4" t="inlineStr">
         <is>
           <t>JAVA (Lab - BCA Lab by RES, KNS)
- by RES, SA, SG, KR, CHA, KNS</t>
+ by KNS, RES</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -5377,7 +6566,7 @@
       <c r="D3" s="4" t="inlineStr">
         <is>
           <t>WAD (Lab - BSc Lab by BE)
- by SH, NEB, KNS, BE, RA, SME</t>
+ by SA, CHA, BE, KR, SG</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -5404,7 +6593,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                      </t>
+          <t xml:space="preserve">LUNCH by                                     </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -5414,7 +6603,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                               </t>
+          <t xml:space="preserve">LUNCH by                                         </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -5441,7 +6630,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD by BE                                                     </t>
+          <t xml:space="preserve">WAD by BE                                    </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -5451,7 +6640,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CS SI                                   </t>
+          <t xml:space="preserve">INTERNSHIP by 3CS SI                             </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5478,7 +6667,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                        </t>
+          <t xml:space="preserve">HED by                                       </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -5488,7 +6677,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                   </t>
+          <t xml:space="preserve">Free                                             </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -5515,7 +6704,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CS SI                                          </t>
+          <t xml:space="preserve">INTERNSHIP by 3CS SI                         </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -5525,7 +6714,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                            </t>
+          <t xml:space="preserve">activity by                                      </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -5552,7 +6741,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                   </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -5562,7 +6751,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                                       </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -5590,7 +6779,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                   </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -5600,7 +6789,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                                       </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -5627,7 +6816,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                    </t>
+          <t xml:space="preserve">BLOCKED by                                   </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -5637,7 +6826,7 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve">BLOCKED by                                       </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -5676,10 +6865,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="62" customWidth="1" min="2" max="2"/>
-    <col width="56" customWidth="1" min="3" max="3"/>
-    <col width="60" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="52" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="42" customWidth="1" min="4" max="4"/>
+    <col width="53" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -5725,22 +6914,22 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                  </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">BLOCKED by                              </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                         </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -5762,22 +6951,22 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                  </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">BLOCKED by                              </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                         </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -5799,22 +6988,22 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                  </t>
+          <t xml:space="preserve">BLOCKED by                                        </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve">BLOCKED by                         </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                </t>
+          <t xml:space="preserve">BLOCKED by                              </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">BLOCKED by                                         </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -5836,28 +7025,28 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD by TM                                                   </t>
+          <t xml:space="preserve">DCF by SR, MN                                     </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by 
-language by                                   </t>
+          <t xml:space="preserve">MDC by                             </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, MN                                             </t>
+          <t>DCF (Lab - BSc Lab by SR, MN)
+ by SR, MN</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">language by                        </t>
+          <t xml:space="preserve">MDC by                                             </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">English by                         </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -5874,27 +7063,28 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                      </t>
+          <t xml:space="preserve">HED by                                            </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                                </t>
+          <t xml:space="preserve">MDC by                             </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD by TM                                                 </t>
+          <t>DCF (Lab - BSc Lab by SR, MN)
+ by SR, MN</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve">English by                                         </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD by TM                          </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -5911,22 +7101,22 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by FHP                                                  </t>
+          <t xml:space="preserve">DAS by FHP                                        </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, MN                                         </t>
+          <t xml:space="preserve">DCF by SR, MN                      </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                               </t>
+          <t xml:space="preserve">activity by                             </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, MN                      </t>
+          <t xml:space="preserve">DCF by SR, MN                                      </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -5948,22 +7138,22 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                    </t>
+          <t xml:space="preserve">LUNCH by                                          </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                              </t>
+          <t xml:space="preserve">LUNCH by                           </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                  </t>
+          <t xml:space="preserve">LUNCH by                                </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">LUNCH by                                           </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -5985,25 +7175,24 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN)
- by SR, AMR, VKR, NEB, MN, SME</t>
+          <t>WAD (Lab - BSc Lab by TM)
+ by TM, RV, KNS, NR, RES</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>WAD (Lab - BSc Lab by TM)
- by NR, TM, CYN, SG, KR, APR</t>
+          <t xml:space="preserve">WAD by TM                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - MCA Lab by FHP)
- by AMR, RES, RA, MAN, KNS, FHP</t>
+          <t xml:space="preserve">DAS by FHP                              </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by FHP                         </t>
+          <t>DAS (Lab - BSc Lab by FHP)
+ by HU, FHP, RM, BE, CHA</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -6025,25 +7214,24 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN)
- by SR, AMR, VKR, NEB, MN, SME</t>
+          <t>WAD (Lab - BSc Lab by TM)
+ by TM, RV, KNS, NR, RES</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>WAD (Lab - BSc Lab by TM)
- by NR, TM, CYN, SG, KR, APR</t>
+          <t xml:space="preserve">LIBRARY by 1CM                     </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - MCA Lab by FHP)
- by AMR, RES, RA, MAN, KNS, FHP</t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1CM                     </t>
+          <t>DAS (Lab - BSc Lab by FHP)
+ by HU, FHP, RM, BE, CHA</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -13,17 +13,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3BCA B" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5BCA A" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5BCA B" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1CS" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CS" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1CM" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CM" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1CM" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CM" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1CS" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CS" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5CME" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCOM-I" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCOM-III" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCOM-II" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCA Lab" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCA Lab" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSc Lab" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BCA Lab" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCA Lab" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BSc Lab" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -464,10 +461,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="56" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="59" customWidth="1" min="3" max="3"/>
+    <col width="55" customWidth="1" min="4" max="4"/>
     <col width="52" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
@@ -509,339 +506,339 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                      </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                      </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                      </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                      </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> PSD by NR                         </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                      </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                      </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> MATHS by XYZ                      </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by NR                                             </t>
+          <t xml:space="preserve"> PSD by NR                         </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve"> MDC by                                                  </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - BCA Lab by NR)
- by SD, RM, NR, KR, SG</t>
+          <t xml:space="preserve"> PSD (Lab - BCA Lab by NR)
+  by RES, SD, NR, FHP, CYN</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                            </t>
+          <t xml:space="preserve"> MDC by                                           </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">English by                         </t>
+          <t xml:space="preserve"> English by                        </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by NR                          </t>
+          <t xml:space="preserve"> LIBRARY by 1BCAA                  </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                </t>
+          <t xml:space="preserve"> WT by KR                          </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve"> MDC by                                                  </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - BCA Lab by NR)
- by SD, RM, NR, KR, SG</t>
+          <t xml:space="preserve"> PSD (Lab - BCA Lab by NR)
+  by RES, SD, NR, FHP, CYN</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">English by                                        </t>
+          <t xml:space="preserve"> English by                                       </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by NR                          </t>
+          <t xml:space="preserve"> PSD by NR                         </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by XYZ                       </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by KR                                             </t>
+          <t xml:space="preserve"> HED by                            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by NR                          </t>
+          <t xml:space="preserve"> PSD by NR                                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                     </t>
+          <t xml:space="preserve"> activity by                                         </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by SA, CHA                                    </t>
+          <t xml:space="preserve"> OOP by SA, CHA                                   </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by XYZ                       </t>
+          <t xml:space="preserve"> MATHS by XYZ                      </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1BCAA                   </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                              </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                                </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                        </t>
+          <t xml:space="preserve"> LUNCH by                                            </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                          </t>
+          <t xml:space="preserve"> LUNCH by                                         </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - BCA Lab by SA, CHA)
- by SA, MN, SD, SR, CHA</t>
+          <t xml:space="preserve"> OOP (Lab - BCA Lab by SA, CHA)    </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA)     </t>
+          <t xml:space="preserve"> OOP (Lab - BCA Lab by SA, CHA)
+  by SA, NEB, RM, BE, CHA</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by SA, CHA                                  </t>
+          <t xml:space="preserve"> OOP by SA, CHA                                      </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - BCA Lab by KR)
- by SD, RV, APR, NEB, KR</t>
+          <t xml:space="preserve"> WT (Lab - BCA Lab by KR)
+  by APR, RV, SG, KR, BE</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1BCAA                   </t>
+          <t xml:space="preserve"> LIBRARY by 1BCAA                  </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - BCA Lab by SA, CHA)
- by SA, MN, SD, SR, CHA</t>
+          <t xml:space="preserve"> OOP (Lab - BCA Lab by SA, CHA)    </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA)     </t>
+          <t xml:space="preserve"> OOP (Lab - BCA Lab by SA, CHA)
+  by SA, NEB, RM, BE, CHA</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by KR                                       </t>
+          <t xml:space="preserve"> WT by KR                                            </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - BCA Lab by KR)
- by SD, RV, APR, NEB, KR</t>
+          <t xml:space="preserve"> WT (Lab - BCA Lab by KR)
+  by APR, RV, SG, KR, BE</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by XYZ                       </t>
+          <t xml:space="preserve"> MATHS by XYZ                      </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
@@ -864,10 +861,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="43" customWidth="1" min="2" max="2"/>
-    <col width="54" customWidth="1" min="3" max="3"/>
-    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="62" customWidth="1" min="3" max="3"/>
+    <col width="54" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
@@ -909,61 +906,63 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>JAVA (Lab - MCA Lab by SR, MN)
- by SR, MN</t>
+          <t xml:space="preserve"> JAVA by RES, KNS                  </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by SR, MN                                      </t>
+          <t xml:space="preserve"> JAVA (Lab - BCA Lab by RES, KNS)
+  by RES, KR, KNS, HU, NEB</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by SR, MN                     </t>
+          <t xml:space="preserve"> WAD (Lab - MCA Lab by BE)
+  by LJ, BE, RV, FHP, FHP</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CM SI               </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CS SI              </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> JAVA by RES, KNS                  </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>JAVA (Lab - MCA Lab by SR, MN)
- by SR, MN</t>
+          <t xml:space="preserve"> JAVA by RES, KNS                  </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by SR, MN                                      </t>
+          <t xml:space="preserve"> JAVA (Lab - BCA Lab by RES, KNS)
+  by RES, KR, KNS, HU, NEB</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by RM                       </t>
+          <t xml:space="preserve"> WAD (Lab - MCA Lab by BE)
+  by LJ, BE, RV, FHP, FHP</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -985,32 +984,32 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                 </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                            </t>
+          <t xml:space="preserve"> LUNCH by                                                   </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                           </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -1022,23 +1021,22 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by RM                             </t>
+          <t xml:space="preserve"> WAD by BE                         </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - BSc Lab by RM)
- by VA, RM, KNS, NR, LJ</t>
+          <t xml:space="preserve"> WAD by BE                                                  </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CM SI               </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CS SI                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1060,23 +1058,22 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                   </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CS SI              </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - BSc Lab by RM)
- by VA, RM, KNS, NR, LJ</t>
+          <t xml:space="preserve"> INTERNSHIP by 3CS SI                                       </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 3CM                     </t>
+          <t xml:space="preserve"> LIBRARY by 3CM                                     </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1098,22 +1095,22 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CM SI                     </t>
+          <t xml:space="preserve"> HED by                            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CM SI                                </t>
+          <t xml:space="preserve">Free                                                        </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                        </t>
+          <t xml:space="preserve"> activity by                                        </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -1128,119 +1125,118 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                          </t>
+          <t xml:space="preserve"> NA                                                         </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by 
-BLOCKED by             </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                          </t>
+          <t xml:space="preserve"> NA                                                         </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                          </t>
+          <t xml:space="preserve"> NA                                                         </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
@@ -1263,12 +1259,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="78" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="37" customWidth="1" min="4" max="4"/>
-    <col width="43" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="55" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="108" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1308,148 +1304,144 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                  </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                                                                       </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                  </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                                                                       </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                                  </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                                                                       </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>WT (Lab - BSc Lab by HU)
-GA (Lab - BSc Lab by CHA)
- by SD, CYN, FHP, HU, RES</t>
+          <t xml:space="preserve"> DA by AMR                         </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT by HU
-GA by CHA                 </t>
+          <t xml:space="preserve"> DA by AMR                         </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT by HU
-GA by CHA                 </t>
+          <t xml:space="preserve"> WT by HU
+ GA by CHA                                 </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT by HU
-GA by CHA                       </t>
+          <t xml:space="preserve"> DA by AMR                         </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                                                                      </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -1461,35 +1453,34 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>WT (Lab - BSc Lab by HU)
-GA (Lab - BSc Lab by CHA)
- by SD, CYN, FHP, HU, RES</t>
+          <t xml:space="preserve"> LIBRARY by 5CME                   </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA by AMR                          </t>
+          <t xml:space="preserve"> WT by HU
+ GA by CHA               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA by AMR                          </t>
+          <t xml:space="preserve"> DA (Lab - BSc Lab by AMR)
+  by AMR, APR, NEB, RM, BE</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>DA (Lab - BSc Lab by AMR)
- by SH, AMR, TM</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                                                                      </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1501,12 +1492,13 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 5CME                                                             </t>
+          <t xml:space="preserve"> WT by HU
+ GA by CHA               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1516,72 +1508,72 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> DA (Lab - BSc Lab by AMR)
+  by AMR, APR, NEB, RM, BE</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>DA (Lab - BSc Lab by AMR)
- by SH, AMR, TM</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                                                                      </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                                    </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                            </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                 </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                                                                                 </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA by AMR                                                                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -1591,34 +1583,37 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                     </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> WT (Lab - MCA Lab by HU)
+ GA (Lab - MCA Lab by CHA)
+  by RES, HU, MAN, VKR, SD
+  by NR, KNS, CYN, MN, CHA</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                        </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -1628,22 +1623,25 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                     </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> WT (Lab - MCA Lab by HU)
+ GA (Lab - MCA Lab by CHA)
+  by RES, HU, MAN, VKR, SD
+  by NR, KNS, CYN, MN, CHA</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
@@ -1666,12 +1664,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="37" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="71" customWidth="1" min="2" max="2"/>
+    <col width="71" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="41" customWidth="1" min="5" max="5"/>
+    <col width="38" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1711,180 +1709,184 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (Lab - BCA Lab by SR, MN) in 3CM                                </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, KNS) in 3CS                              </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>PY (Lab - BCA Lab by TM, VA) in 3BCA A</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>PY (Lab - BCA Lab by RES, HU) in 3BCA B</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I by KR                       </t>
+          <t xml:space="preserve">MA (Lab - BCA Lab by MAN) in 3BCA A </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I by KR, FHP, CYN             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (Lab - BCA Lab by SR, MN) in 3CM                                </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, KNS) in 3CS                              </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>PY (Lab - BCA Lab by TM, VA) in 3BCA A</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>PY (Lab - BCA Lab by RES, HU) in 3BCA B</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I by KR                       </t>
+          <t xml:space="preserve">MA (Lab - BCA Lab by MAN) in 3BCA A </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-I by KR, FHP, CYN             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                                                 </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                                                 </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                  </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                   </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>PRJ (Lab - BCA Lab by VA) in 5BCA A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>GA (Lab - BCA Lab by VA) in 5BCA A
+GA (Lab - BCA Lab by VA) in 5BCA B</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>GA (Lab - BCA Lab by VA) in 5BCA A
+GA (Lab - BCA Lab by VA) in 5BCA B</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A   </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                   </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (Lab - BCA Lab by VKR) in 5BCA A </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>PRJ (Lab - BCA Lab by VA) in 5BCA A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>GA (Lab - BCA Lab by VA) in 5BCA A
+GA (Lab - BCA Lab by VA) in 5BCA B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>GA (Lab - BCA Lab by VA) in 5BCA A
+GA (Lab - BCA Lab by VA) in 5BCA B</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A   </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (Lab - BCA Lab by VKR) in 5BCA A    </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (Lab - BCA Lab by VKR) in 5BCA A </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1896,149 +1898,148 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                                 </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                                 </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                  </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (Lab - BCA Lab by VKR) in 5BCA A    </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                                                 </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                                                 </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                  </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                   </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by 
-BLOCKED by             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">DAS (Lab - BCA Lab by FHP) in 1CM     </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">WT (Lab - BCA Lab by KR) in 1BCA A     </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t>DCF (Lab - BCA Lab by SR, LJ) in 1CS</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">DAS (Lab - BCA Lab by FHP) in 1CM     </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">WT (Lab - BCA Lab by KR) in 1BCA A     </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t>DCF (Lab - BCA Lab by SR, LJ) in 1CS</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2061,12 +2062,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="37" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="73" customWidth="1" min="2" max="2"/>
+    <col width="73" customWidth="1" min="3" max="3"/>
+    <col width="42" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="5" max="5"/>
+    <col width="68" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2106,180 +2107,184 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (Lab - MCA Lab by BE) in 3CS        </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAP (Lab - MCA Lab by RM) in 3CM        </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III by RM                     </t>
+          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 3BCA B                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III by RM, AMR                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (Lab - MCA Lab by BE) in 3CS        </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAP (Lab - MCA Lab by RM) in 3CM        </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III by RM                     </t>
+          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 3BCA B                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BCOM-III by RM, AMR                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve">Free                                                              </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>PRJ (Lab - MCA Lab by SH) in 5BCA B</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>PRJ (Lab - MCA Lab by SH) in 5BCA B</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
+BI (Lab - MCA Lab by NEB) in 5BCA B</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B     </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -2291,149 +2296,150 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B     </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                              </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                                                   </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                                              </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by 
-BLOCKED by             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">PSD (Lab - MCA Lab by APR) in 1BCA B                                   </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">WT (Lab - MCA Lab by SG) in 1BCA B                                     </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t>WT (Lab - MCA Lab by HU) in 5CME
+GA (Lab - MCA Lab by CHA) in 5CME</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">PSD (Lab - MCA Lab by APR) in 1BCA B                                   </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">WT (Lab - MCA Lab by SG) in 1BCA B                                     </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t>WT (Lab - MCA Lab by HU) in 5CME
+GA (Lab - MCA Lab by CHA) in 5CME</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2456,1201 +2462,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Hour 1</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCOM-II by SK                      </t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCOM-II by SK, SG, SME             </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Hour 2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCOM-II by SK                      </t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BCOM-II by SK, SG, SME             </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Hour 3</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                           </t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                           </t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                           </t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                           </t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LUNCH by                           </t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Hour 4</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Hour 5</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Hour 6</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Hour 7</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by 
-BLOCKED by             </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Hour 8</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Hour 9</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="71" customWidth="1" min="2" max="2"/>
-    <col width="71" customWidth="1" min="3" max="3"/>
-    <col width="44" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Hour 1</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, KNS) in 3CS                              </t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>GA (Lab - BCA Lab by VA) in 5BCA A
-GA (Lab - BCA Lab by VA) in 5BCA B</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>PYTHON (Lab - BCA Lab by TM, VA) in 3BCA A</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Hour 2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVA (Lab - BCA Lab by RES, KNS) in 3CS                              </t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>GA (Lab - BCA Lab by VA) in 5BCA A
-GA (Lab - BCA Lab by VA) in 5BCA B</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>PYTHON (Lab - BCA Lab by TM, VA) in 3BCA A</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>PRJ (Lab - BCA Lab by VA) in 5BCA A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Hour 3</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                 </t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                 </t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                      </t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>PRJ (Lab - BCA Lab by VA) in 5BCA A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Hour 4</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>GA (Lab - BCA Lab by VA) in 5BCA A
-GA (Lab - BCA Lab by VA) in 5BCA B</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                 </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A       </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - BCA Lab by VKR) in 5BCA A</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Hour 5</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>GA (Lab - BCA Lab by VA) in 5BCA A
-GA (Lab - BCA Lab by VA) in 5BCA B</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA (Lab - BCA Lab by MAN) in 3BCA A                                  </t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A       </t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - BCA Lab by VKR) in 5BCA A</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - BCA Lab by VKR) in 5BCA A</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Hour 6</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                 </t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA (Lab - BCA Lab by MAN) in 3BCA A                                  </t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                      </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - BCA Lab by VKR) in 5BCA A</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Hour 7</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                 </t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                 </t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                      </t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Hour 8</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                      </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>IWT (Lab - BCA Lab by KR) in 1BCA A</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Hour 9</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                      </t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>IWT (Lab - BCA Lab by KR) in 1BCA A</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="73" customWidth="1" min="2" max="2"/>
-    <col width="73" customWidth="1" min="3" max="3"/>
-    <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Hour 1</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVA (Lab - MCA Lab by SR, MN) in 3CM                                  </t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
-BI (Lab - MCA Lab by NEB) in 5BCA B</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>PYTHON (Lab - MCA Lab by RES, HU) in 3BCA B</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                    </t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Hour 2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JAVA (Lab - MCA Lab by SR, MN) in 3CM                                  </t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
-BI (Lab - MCA Lab by NEB) in 5BCA B</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>PYTHON (Lab - MCA Lab by RES, HU) in 3BCA B</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                    </t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>PRJ (Lab - MCA Lab by SH) in 5BCA B</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Hour 3</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                   </t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                   </t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                       </t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                    </t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>PRJ (Lab - MCA Lab by SH) in 5BCA B</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Hour 4</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
-BI (Lab - MCA Lab by NEB) in 5BCA B</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                   </t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B   </t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                    </t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - MCA Lab by MAN) in 5BCA B</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Hour 5</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>BI (Lab - MCA Lab by NEB) in 5BCA A
-BI (Lab - MCA Lab by NEB) in 5BCA B</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 3BCA B                                    </t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B   </t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B     </t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>MA (Lab - MCA Lab by MAN) in 5BCA B</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Hour 6</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                   </t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 3BCA B                                    </t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                       </t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B     </t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Hour 7</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                   </t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                                                   </t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                       </t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                    </t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Hour 8</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PSD (Lab - MCA Lab by APR) in 1BCA B                                   </t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IWT (Lab - MCA Lab by SG) in 1BCA B                                    </t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                       </t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Hour 9</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PSD (Lab - MCA Lab by APR) in 1BCA B                                   </t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IWT (Lab - MCA Lab by SG) in 1BCA B                                    </t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                       </t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="68" customWidth="1" min="2" max="2"/>
-    <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="38" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="38" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
@@ -3692,12 +2507,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -3707,7 +2522,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by BE) in 3CS    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -3729,12 +2544,12 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -3744,7 +2559,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by BE) in 3CS    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -3759,19 +2574,19 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM   </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -3781,45 +2596,44 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free                                </t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                </t>
-        </is>
-      </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM   </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>WT (Lab - BSc Lab by HU) in 5CME
-GA (Lab - BSc Lab by CHA) in 5CME</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - BSc Lab by RM) in 3CM</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3834,57 +2648,56 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>WT (Lab - BSc Lab by HU) in 5CME
-GA (Lab - BSc Lab by CHA) in 5CME</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - BSc Lab by RM) in 3CM</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">DA (Lab - BSc Lab by AMR) in 5CME  </t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
           <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DA (Lab - BSc Lab by AMR) in 5CME  </t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>DCF (Lab - BSc Lab by SR, LJ) in 1CS</t>
-        </is>
-      </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -3894,17 +2707,17 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">DA (Lab - BSc Lab by AMR) in 5CME  </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DA (Lab - BSc Lab by AMR) in 5CME  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, LJ) in 1CS</t>
+          <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3916,12 +2729,12 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -3931,7 +2744,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -3953,27 +2766,27 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM                                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BSc Lab by FHP) in 1CM  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -3990,27 +2803,27 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM                                  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BSc Lab by FHP) in 1CM  </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -4043,11 +2856,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="56" customWidth="1" min="2" max="2"/>
-    <col width="52" customWidth="1" min="3" max="3"/>
-    <col width="56" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="53" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="58" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -4088,339 +2901,339 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> PSD by APR                        </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                            </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> MATHS by TEMP                     </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by KNS, LJ                                        </t>
+          <t xml:space="preserve"> OOP by KNS, LJ                                       </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                            </t>
+          <t xml:space="preserve"> MDC by                                            </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ)
- by SA, TM, KNS, SH, LJ</t>
+          <t xml:space="preserve"> OOP (Lab - MCA Lab by KNS, LJ)    </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve"> MDC by                                                 </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">English by                         </t>
+          <t xml:space="preserve"> English by                        </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by APR                         </t>
+          <t xml:space="preserve"> LIBRARY by 1BCA B                 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                                </t>
+          <t xml:space="preserve"> WT by SG                                             </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                            </t>
+          <t xml:space="preserve"> MDC by                                            </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ)
- by SA, TM, KNS, SH, LJ</t>
+          <t xml:space="preserve"> OOP (Lab - MCA Lab by KNS, LJ)    </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">English by                         </t>
+          <t xml:space="preserve"> English by                                             </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by APR                         </t>
+          <t xml:space="preserve"> PSD by APR                        </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by TEMP                      </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by SG                                             </t>
+          <t xml:space="preserve"> HED by                                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP by KNS, LJ                                    </t>
+          <t xml:space="preserve"> OOP by KNS, LJ                                    </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                           </t>
+          <t xml:space="preserve"> activity by                       </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by APR                         </t>
+          <t xml:space="preserve"> PSD by APR                                             </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by TEMP                      </t>
+          <t xml:space="preserve"> MATHS by TEMP                     </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1BCA B                  </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                              </t>
+          <t xml:space="preserve"> LUNCH by                                             </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                          </t>
+          <t xml:space="preserve"> LUNCH by                                          </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                              </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - MCA Lab by APR)
- by MAN, VKR, CYN, FHP, APR</t>
+          <t xml:space="preserve"> PSD (Lab - MCA Lab by APR)
+  by AMR, APR, NEB, RM, VA</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - MCA Lab by SG)
- by SR, SD, CYN, FHP, SG</t>
+          <t xml:space="preserve"> WT (Lab - MCA Lab by SG)
+  by AMR, LJ, APR, RV, SG</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD by APR                                            </t>
+          <t xml:space="preserve"> PSD by APR                        </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (Lab - MCA Lab by KNS, LJ)     </t>
+          <t xml:space="preserve"> OOP (Lab - MCA Lab by KNS, LJ)
+  by SD, LJ, NR, KNS, SR</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1BCA B                  </t>
+          <t xml:space="preserve"> LIBRARY by 1BCA B                 </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>PSD (Lab - MCA Lab by APR)
- by MAN, VKR, CYN, FHP, APR</t>
+          <t xml:space="preserve"> PSD (Lab - MCA Lab by APR)
+  by AMR, APR, NEB, RM, VA</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>IWT (Lab - MCA Lab by SG)
- by SR, SD, CYN, FHP, SG</t>
+          <t xml:space="preserve"> WT (Lab - MCA Lab by SG)
+  by AMR, LJ, APR, RV, SG</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">IWT by SG                                             </t>
+          <t xml:space="preserve"> WT by SG                          </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OOP (Lab - MCA Lab by KNS, LJ)     </t>
+          <t xml:space="preserve"> OOP (Lab - MCA Lab by KNS, LJ)
+  by SD, LJ, NR, KNS, SR</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MATHS by TEMP                      </t>
+          <t xml:space="preserve"> MATHS by TEMP                     </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
@@ -4443,12 +3256,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="54" customWidth="1" min="3" max="3"/>
-    <col width="57" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="56" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="56" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -4488,183 +3301,184 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SD, NR                       </t>
+          <t xml:space="preserve"> CN by SD, NR                      </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SD, NR                                        </t>
+          <t xml:space="preserve"> CN by SD, NR                      </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - BCA Lab by TM, VA)
- by SD, TM, RV, VA, NR</t>
+          <t xml:space="preserve"> PY (Lab - BCA Lab by TM, VA)
+  by SD, TM, NR, KNS, VA</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by TM, VA                   </t>
+          <t xml:space="preserve"> PY by TM, VA                      </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                          </t>
+          <t xml:space="preserve"> MA (Lab - BCA Lab by MAN)
+  by AMR, SME, MAN, APR, RA</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SD, NR                       </t>
+          <t xml:space="preserve"> CN by SD, NR                      </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SD, NR                                        </t>
+          <t xml:space="preserve"> CN by SD, NR                      </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - BCA Lab by TM, VA)
- by SD, TM, RV, VA, NR</t>
+          <t xml:space="preserve"> PY (Lab - BCA Lab by TM, VA)
+  by SD, TM, NR, KNS, VA</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by TM, VA                   </t>
+          <t xml:space="preserve"> PY by TM, VA                      </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
+          <t xml:space="preserve"> MA (Lab - BCA Lab by MAN)
+  by AMR, SME, MAN, APR, RA</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> MA by MAN                         </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                            </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                               </t>
+          <t xml:space="preserve"> LUNCH by                                             </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                             </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI           </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS by RV                           </t>
+          <t xml:space="preserve"> OS by RV                          </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">language by                                         </t>
+          <t xml:space="preserve"> language by                       </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS by RV                                               </t>
+          <t xml:space="preserve"> OS by RV                                             </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">language by                        </t>
+          <t xml:space="preserve"> language by                       </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI                              </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI           </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                             </t>
+          <t xml:space="preserve"> MA by MAN                         </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BCA Lab by MAN)
- by SD, MAN, CYN, FHP, RES</t>
+          <t xml:space="preserve"> OS by RV                          </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                                              </t>
+          <t xml:space="preserve"> MA by MAN                                            </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS by RV                           </t>
+          <t xml:space="preserve"> LIBRARY by 3 BCA A                </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA A SI            </t>
+          <t xml:space="preserve"> Accounting by -, -                                   </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -4676,150 +3490,148 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                          </t>
+          <t xml:space="preserve"> HED by                            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BCA Lab by MAN)
- by SD, MAN, CYN, FHP, RES</t>
+          <t xml:space="preserve"> Accounting by -, -                </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                            </t>
+          <t xml:space="preserve"> activity by                                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 3 BCA A                 </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI           </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> Accounting by -, -                                   </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                          </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by 
-BLOCKED by             </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                          </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                          </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                             </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
@@ -4842,12 +3654,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="53" customWidth="1" min="3" max="3"/>
-    <col width="61" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="58" customWidth="1" min="5" max="5"/>
+    <col width="53" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -4887,183 +3699,184 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by FHP, CYN                     </t>
+          <t xml:space="preserve"> CN by FHP, CYN                    </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by FHP, CYN                                     </t>
+          <t xml:space="preserve"> CN by FHP, CYN                    </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - MCA Lab by RES, HU)
- by HU, APR, LJ, NEB, RES</t>
+          <t xml:space="preserve"> PY by RES, HU                     </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by RES, HU                  </t>
+          <t xml:space="preserve"> PY (Lab - BCA Lab by RES, HU)
+  by RES, HU, SA, CHA, NR</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                          </t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by VKR)
+  by VKR, TM, RV, SA, SG</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA B SI            </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by FHP, CYN                     </t>
+          <t xml:space="preserve"> CN by FHP, CYN                    </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by FHP, CYN                                     </t>
+          <t xml:space="preserve"> CN by FHP, CYN                    </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>PYTHON (Lab - MCA Lab by RES, HU)
- by HU, APR, LJ, NEB, RES</t>
+          <t xml:space="preserve"> PY by RES, HU                     </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PYTHON by RES, HU                  </t>
+          <t xml:space="preserve"> PY (Lab - BCA Lab by RES, HU)
+  by RES, HU, SA, CHA, NR</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA B SI            </t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by VKR)
+  by VKR, TM, RV, SA, SG</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> MA by VKR                         </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                   </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                               </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                          </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI           </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS by APR                          </t>
+          <t xml:space="preserve"> OS by APR                         </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">language by                                        </t>
+          <t xml:space="preserve"> language by                       </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS by APR                                                  </t>
+          <t xml:space="preserve"> OS by APR                         </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">language by                        </t>
+          <t xml:space="preserve"> language by                                            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA B SI            </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI                           </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI           </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                             </t>
+          <t xml:space="preserve"> MA by VKR                         </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - MCA Lab by VKR)
- by VKR, HU, APR, RV, NEB</t>
+          <t xml:space="preserve"> OS by APR                         </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                                                  </t>
+          <t xml:space="preserve"> MA by VKR                         </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">OS by APR                          </t>
+          <t xml:space="preserve"> LIBRARY by 3 BCA B                                     </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3BCA B SI            </t>
+          <t xml:space="preserve"> Accounting by -, -                                </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -5075,150 +3888,148 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                          </t>
+          <t xml:space="preserve"> HED by                            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - MCA Lab by VKR)
- by VKR, HU, APR, RV, NEB</t>
+          <t xml:space="preserve"> Accounting by -, -                </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                                </t>
+          <t xml:space="preserve"> activity by                       </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 3 BCA B                 </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI                                </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> Accounting by -, -                                </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by 
-BLOCKED by             </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                 </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
@@ -5241,13 +4052,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="70" customWidth="1" min="2" max="2"/>
-    <col width="52" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="54" customWidth="1" min="2" max="2"/>
+    <col width="82" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
-    <col width="52" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
-    <col width="51" customWidth="1" min="7" max="7"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="56" customWidth="1" min="6" max="6"/>
+    <col width="53" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5286,352 +4097,351 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                                                           </t>
+          <t xml:space="preserve"> MA by VKR                                          </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)</t>
+          <t xml:space="preserve"> MA by VKR                                                                      </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN               </t>
+          <t xml:space="preserve"> MM by AMR
+ CS by CYN              </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN                              </t>
+          <t xml:space="preserve"> MM by AMR
+ CS by CYN              </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                 </t>
+          <t xml:space="preserve"> GA by VA
+ BI by NEB                                  </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                               </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                                                           </t>
+          <t xml:space="preserve"> CN by SME                                          </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)</t>
+          <t xml:space="preserve"> CN by SME                                                                      </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                          </t>
+          <t xml:space="preserve"> MA by VKR                         </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SME                                         </t>
+          <t xml:space="preserve"> CN by SME                         </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SME                          </t>
+          <t xml:space="preserve"> PRJ by VA                                            </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>PRJ (Lab - BCA Lab by VA)
- by APR, VA, RV, BE, LJ</t>
+          <t xml:space="preserve"> GA by VA
+ BI by NEB                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                            </t>
+          <t xml:space="preserve"> LUNCH by                                           </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                          </t>
+          <t xml:space="preserve"> LUNCH by                                                                       </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                          </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                             </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>PRJ (Lab - BCA Lab by VA)
- by APR, VA, RV, BE, LJ</t>
+          <t xml:space="preserve"> PRJ (Lab - BCA Lab by VA)
+  by SME, RV, SG, RA, VA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)
- by MAN, NEB, VKR</t>
+          <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
+ BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN                              </t>
+          <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
+ BI (Lab - MCA Lab by NEB)
+  by RES, MAN, VKR, SD, NEB</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                 </t>
+          <t xml:space="preserve"> GA by VA
+ BI by NEB               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                                </t>
+          <t xml:space="preserve"> GA by VA
+ BI by NEB               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - BCA Lab by VKR)          </t>
+          <t xml:space="preserve"> MA (Lab - BCA Lab by VKR)
+  by VKR, SD, KNS, FHP, CYN</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by VKR                                        </t>
+          <t xml:space="preserve"> PRJ (Lab - BCA Lab by VA)
+  by SME, RV, SG, RA, VA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)
- by MAN, NEB, VKR</t>
+          <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
+ BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SME                                         </t>
+          <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
+ BI (Lab - MCA Lab by NEB)
+  by RES, MAN, VKR, SD, NEB</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by SME                          </t>
+          <t xml:space="preserve"> CN by SME                         </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BCA Lab by VKR)
- by VKR, HU, RM, BE, NEB</t>
+          <t xml:space="preserve"> MA (Lab - BCA Lab by VKR)         </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - BCA Lab by VKR)          </t>
+          <t xml:space="preserve"> MA (Lab - BCA Lab by VKR)
+  by VKR, SD, KNS, FHP, CYN</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                             </t>
+          <t xml:space="preserve"> MA by VKR                                         </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN                                                </t>
+          <t xml:space="preserve"> MM by AMR
+ CS by CYN                               </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ by VA                                         </t>
+          <t xml:space="preserve"> MM by AMR
+ CS by CYN                                                           </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                        </t>
+          <t xml:space="preserve"> activity by                       </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - BCA Lab by VKR)
- by VKR, HU, RM, BE, NEB</t>
+          <t xml:space="preserve"> MA (Lab - BCA Lab by VKR)         </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ by VA                          </t>
+          <t xml:space="preserve"> PRJ by VA                                            </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                       </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                          </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                                                             </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by 
-BLOCKED by                           </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                          </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                                                             </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                       </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                                          </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                                                             </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                       </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
@@ -5654,13 +4464,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="59" customWidth="1" min="2" max="2"/>
-    <col width="52" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="81" customWidth="1" min="2" max="2"/>
+    <col width="54" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
-    <col width="52" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
-    <col width="51" customWidth="1" min="7" max="7"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="54" customWidth="1" min="6" max="6"/>
+    <col width="53" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5699,352 +4509,351 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                                                </t>
+          <t xml:space="preserve"> MA by MAN                                                                     </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)</t>
+          <t xml:space="preserve"> MA by MAN                                          </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN               </t>
+          <t xml:space="preserve"> MM by AMR
+ CS by CYN              </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN                              </t>
+          <t xml:space="preserve"> MM by AMR
+ CS by CYN              </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                 </t>
+          <t xml:space="preserve"> GA by VA
+ BI by NEB                                </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                               </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                                                </t>
+          <t xml:space="preserve"> CN by RA                                                                      </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)</t>
+          <t xml:space="preserve"> CN by RA                                           </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                          </t>
+          <t xml:space="preserve"> MA by MAN                         </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by RA                                          </t>
+          <t xml:space="preserve"> CN by RA                          </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by RA                           </t>
+          <t xml:space="preserve"> PRJ by SH                                          </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>PRJ (Lab - MCA Lab by SH)
- by SA, RA, TM, SH, CHA</t>
+          <t xml:space="preserve"> GA by VA
+ BI by NEB                               </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                                 </t>
+          <t xml:space="preserve"> LUNCH by                                                                      </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                          </t>
+          <t xml:space="preserve"> LUNCH by                                           </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                          </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                           </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>PRJ (Lab - MCA Lab by SH)
- by SA, RA, TM, SH, CHA</t>
+          <t xml:space="preserve"> PRJ (Lab - MCA Lab by SH)
+  by HU, SH, SA, KR, CHA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)
- by VA</t>
+          <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
+ BI (Lab - MCA Lab by NEB)
+  by RES, SD, FHP, CYN, VA</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN                              </t>
+          <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
+ BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                 </t>
+          <t xml:space="preserve"> GA by VA
+ BI by NEB               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GA by VA
-BI by NEB                                </t>
+          <t xml:space="preserve"> GA by VA
+ BI by NEB               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN)          </t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by MAN)
+  by SME, MAN, RM, RA, BE</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA by MAN                                        </t>
+          <t xml:space="preserve"> PRJ (Lab - MCA Lab by SH)
+  by HU, SH, SA, KR, CHA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>GA (Lab - BCA Lab by VA)
-BI (Lab - MCA Lab by NEB)
- by VA</t>
+          <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
+ BI (Lab - MCA Lab by NEB)
+  by RES, SD, FHP, CYN, VA</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by RA                                          </t>
+          <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
+ BI (Lab - MCA Lab by NEB)</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN by RA                           </t>
+          <t xml:space="preserve"> CN by RA                          </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - MCA Lab by MAN)
- by RA, MAN, SME, KR, SG</t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by MAN)         </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN)          </t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by MAN)
+  by SME, MAN, RM, RA, BE</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                             </t>
+          <t xml:space="preserve"> MA by MAN                                         </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MUL by AMR
-CS by CYN                                     </t>
+          <t xml:space="preserve"> MM by AMR
+ CS by CYN                                                          </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ by SH                                         </t>
+          <t xml:space="preserve"> MM by AMR
+ CS by CYN                               </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                        </t>
+          <t xml:space="preserve"> activity by                       </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>MA (Lab - MCA Lab by MAN)
- by RA, MAN, SME, KR, SG</t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by MAN)         </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PRJ by SH                          </t>
+          <t xml:space="preserve"> PRJ by SH                                          </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                       </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                               </t>
+          <t xml:space="preserve"> NA                                                                            </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by 
-BLOCKED by                           </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                               </t>
+          <t xml:space="preserve"> NA                                                                            </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                       </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                               </t>
+          <t xml:space="preserve"> NA                                                                            </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                       </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
@@ -6067,12 +4876,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="52" customWidth="1" min="3" max="3"/>
-    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="56" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="55" customWidth="1" min="6" max="6"/>
+    <col width="56" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -6112,181 +4921,183 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                           </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                           </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> WAD (Lab - BSc Lab by TM)
+  by TM </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                           </t>
+          <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> WAD (Lab - BSc Lab by TM)
+  by TM </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1CS                     </t>
+          <t xml:space="preserve"> DCF by SR, MN                     </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                            </t>
+          <t xml:space="preserve"> MDC by                            </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by BE                          </t>
+          <t xml:space="preserve"> DCF by SR, MN                                        </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve"> MDC by                            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">English by                                           </t>
+          <t xml:space="preserve"> English by                                           </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, LJ                      </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                             </t>
+          <t xml:space="preserve"> WAD by TM                         </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                            </t>
+          <t xml:space="preserve"> MDC by                            </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                  </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">English by                         </t>
+          <t xml:space="preserve"> English by                        </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, LJ)
- by SR, HU, RV, LJ, NEB</t>
+          <t xml:space="preserve"> DCF (Lab - BSc Lab by SR, MN)
+  by LJ, RV, SR, SG, MN</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -6298,98 +5109,98 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, LJ                      </t>
+          <t xml:space="preserve"> HED by                            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                              </t>
+          <t xml:space="preserve"> DCF by SR, MN                     </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                        </t>
+          <t xml:space="preserve"> activity by                                          </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by LJ                          </t>
+          <t xml:space="preserve"> DAS by FHP                        </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, LJ)
- by SR, HU, RV, LJ, NEB</t>
+          <t xml:space="preserve"> DCF (Lab - BSc Lab by SR, MN)
+  by LJ, RV, SR, SG, MN</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                          </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                             </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                             </t>
+          <t xml:space="preserve"> LUNCH by                                             </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by BE                          </t>
+          <t xml:space="preserve"> LIBRARY by 1CM                    </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - BSc Lab by BE)
- by RV, KNS, BE, NR, RES</t>
+          <t xml:space="preserve"> WAD by TM                         </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> DAS (Lab - BCA Lab by FHP)
+  by SME, NEB, FHP, RM, RA</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -6399,19 +5210,19 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve"> DAS by FHP                                           </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -6421,13 +5232,13 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - BSc Lab by BE)
- by RV, KNS, BE, NR, RES</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> DAS (Lab - BCA Lab by FHP)
+  by SME, NEB, FHP, RM, RA</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -6437,12 +5248,12 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                 </t>
+          <t xml:space="preserve">Free                                                  </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
@@ -6465,11 +5276,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="51" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="52" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -6510,68 +5321,68 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>JAVA (Lab - BCA Lab by RES, KNS)
- by KNS, RES</t>
+          <t xml:space="preserve"> JAVA (Lab - BCA Lab by SR, MN)
+  by MN, SR</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by RES, KNS                   </t>
+          <t xml:space="preserve"> JAVA by SR, MN                    </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>WAD (Lab - BSc Lab by BE)
- by SA, CHA, BE, KR, SG</t>
+          <t xml:space="preserve"> JAVA by SR, MN                    </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CS SI               </t>
+          <t xml:space="preserve"> DAP (Lab - MCA Lab by RM)
+  by RM, BE, BE, LJ, LJ</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by RES, KNS                   </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>JAVA (Lab - BCA Lab by RES, KNS)
- by KNS, RES</t>
+          <t xml:space="preserve"> JAVA (Lab - BCA Lab by SR, MN)
+  by MN, SR</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVA by RES, KNS                   </t>
+          <t xml:space="preserve"> JAVA by SR, MN                    </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>WAD (Lab - BSc Lab by BE)
- by SA, CHA, BE, KR, SG</t>
+          <t xml:space="preserve"> INTERNSHIP by 3CM SI              </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> DAP (Lab - MCA Lab by RM)
+  by RM, BE, BE, LJ, LJ</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -6588,32 +5399,32 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                     </t>
+          <t xml:space="preserve"> LUNCH by                                  </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                         </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                         </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -6625,27 +5436,27 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD by BE                                    </t>
+          <t xml:space="preserve"> DAP by RM                                 </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD by BE                          </t>
+          <t xml:space="preserve"> DAP by RM                         </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CS SI                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CM SI                             </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -6662,27 +5473,27 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                       </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CM SI                      </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CS SI               </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CM SI              </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                             </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                              </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -6699,27 +5510,27 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">INTERNSHIP by 3CS SI                         </t>
+          <t xml:space="preserve"> HED by                                    </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 3CM                     </t>
+          <t xml:space="preserve"> LIBRARY by 3CM                    </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                                      </t>
+          <t xml:space="preserve"> activity by                       </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                              </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -6729,119 +5540,118 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                   </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                       </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by 
-BLOCKED by             </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                   </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                       </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                   </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                       </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
@@ -6864,13 +5674,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="52" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="42" customWidth="1" min="4" max="4"/>
-    <col width="53" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="58" customWidth="1" min="6" max="6"/>
+    <col width="52" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6909,339 +5719,337 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Hour 1</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                              </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Hour 2</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                              </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                              </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Hour 3</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                        </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                              </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                                         </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve">Free                                              </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Hour 4</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, MN                                     </t>
+          <t xml:space="preserve"> LIBRARY by 1CS                    </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve"> MDC by                            </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN)
- by SR, MN</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                                             </t>
+          <t xml:space="preserve"> MDC by                            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">English by                         </t>
+          <t xml:space="preserve"> English by                                             </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> DAS (Lab - BSc Lab by BE)
+  by TM, BE, SK, TM, TM</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Hour 5</t>
+          <t>10:45 AM</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">HED by                                            </t>
+          <t xml:space="preserve"> DCF by SR, LJ                     </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MDC by                             </t>
+          <t xml:space="preserve"> MDC by                            </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN)
- by SR, MN</t>
+          <t xml:space="preserve"> DCF by SR                         </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">English by                                         </t>
+          <t xml:space="preserve"> English by                        </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD by TM                          </t>
+          <t xml:space="preserve">Free                                                    </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> DAS (Lab - BSc Lab by BE)
+  by TM, BE, SK, TM, TM</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Hour 6</t>
+          <t>11:45 AM</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by FHP                                        </t>
+          <t xml:space="preserve"> HED by                            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, MN                      </t>
+          <t xml:space="preserve"> DAS by BE                         </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">activity by                             </t>
+          <t xml:space="preserve"> activity by                       </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DCF by SR, MN                                      </t>
+          <t xml:space="preserve"> DCF by SR, LJ                     </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                    </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hour 7</t>
+          <t>12:45 PM</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                          </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                                           </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LUNCH by                           </t>
+          <t xml:space="preserve"> LUNCH by                                               </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Hour 8</t>
+          <t>01:45 PM</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>WAD (Lab - BSc Lab by TM)
- by TM, RV, KNS, NR, RES</t>
+          <t xml:space="preserve"> DAS by BE                         </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD by TM                          </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS by FHP                              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - BSc Lab by FHP)
- by HU, FHP, RM, BE, CHA</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> DCF (Lab - BCA Lab by SR, LJ)
+  by LJ, SR, SME, SME, RA</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Hour 9</t>
+          <t>02:45 PM</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>WAD (Lab - BSc Lab by TM)
- by TM, RV, KNS, NR, RES</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIBRARY by 1CM                     </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>DAS (Lab - BSc Lab by FHP)
- by HU, FHP, RM, BE, CHA</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> DCF (Lab - BCA Lab by SR, LJ)
+  by LJ, SR, SME, SME, RA</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">BLOCKED by                         </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
     </row>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -462,10 +462,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="59" customWidth="1" min="3" max="3"/>
-    <col width="55" customWidth="1" min="4" max="4"/>
-    <col width="52" customWidth="1" min="5" max="5"/>
+    <col width="52" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="58" customWidth="1" min="4" max="4"/>
+    <col width="53" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -511,22 +511,22 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                      </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                  </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                               </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -548,22 +548,22 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                      </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                  </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                               </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by NR                         </t>
+          <t xml:space="preserve"> MATHS by XYZ                      </t>
         </is>
       </c>
     </row>
@@ -585,22 +585,22 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                      </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                  </t>
+          <t xml:space="preserve"> NA                                                     </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                               </t>
+          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MATHS by XYZ                      </t>
+          <t xml:space="preserve"> LIBRARY by 1BCAA                  </t>
         </is>
       </c>
     </row>
@@ -622,23 +622,22 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by NR                         </t>
+          <t xml:space="preserve"> OOP by SA, CHA                                   </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                                                  </t>
+          <t xml:space="preserve"> MDC by                            </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD (Lab - BCA Lab by NR)
-  by RES, SD, NR, FHP, CYN</t>
+          <t xml:space="preserve"> PSD by NR                                              </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                                           </t>
+          <t xml:space="preserve"> MDC by                                            </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -660,23 +659,22 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by KR                          </t>
+          <t xml:space="preserve"> PSD by NR                                        </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                                                  </t>
+          <t xml:space="preserve"> MDC by                            </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD (Lab - BCA Lab by NR)
-  by RES, SD, NR, FHP, CYN</t>
+          <t xml:space="preserve"> WT by KR                                               </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> English by                                       </t>
+          <t xml:space="preserve"> English by                                        </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -698,27 +696,27 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HED by                            </t>
+          <t xml:space="preserve"> HED by                                           </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by NR                                               </t>
+          <t xml:space="preserve"> PSD by NR                         </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by                                         </t>
+          <t xml:space="preserve"> activity by                                            </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by SA, CHA                                   </t>
+          <t xml:space="preserve"> OOP by SA, CHA                                    </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MATHS by XYZ                      </t>
+          <t xml:space="preserve"> WT by KR                          </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -735,22 +733,22 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> LUNCH by                                         </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LUNCH by                                                </t>
-        </is>
-      </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                            </t>
+          <t xml:space="preserve"> LUNCH by                                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                         </t>
+          <t xml:space="preserve"> LUNCH by                                          </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -772,29 +770,30 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> WT (Lab - MCA Lab by KR)
+  by AMR, LJ, VA, KR, LJ</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> OOP (Lab - BCA Lab by SA, CHA)    </t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> OOP (Lab - BCA Lab by SA, CHA)
-  by SA, NEB, RM, BE, CHA</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> OOP by SA, CHA                                      </t>
+  by SA, CHA, RV, RA, SD</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT (Lab - BCA Lab by KR)
-  by APR, RV, SG, KR, BE</t>
+          <t xml:space="preserve"> PSD (Lab - BCA Lab by NR)
+  by SK, NEB, NR, SG, BE</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBRARY by 1BCAA                  </t>
+          <t xml:space="preserve"> MATHS by XYZ                      </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -811,24 +810,25 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> WT (Lab - MCA Lab by KR)
+  by AMR, LJ, VA, KR, LJ</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> OOP (Lab - BCA Lab by SA, CHA)    </t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> OOP (Lab - BCA Lab by SA, CHA)
-  by SA, NEB, RM, BE, CHA</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WT by KR                                            </t>
+  by SA, CHA, RV, RA, SD</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT (Lab - BCA Lab by KR)
-  by APR, RV, SG, KR, BE</t>
+          <t xml:space="preserve"> PSD (Lab - BCA Lab by NR)
+  by SK, NEB, NR, SG, BE</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -863,8 +863,8 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="62" customWidth="1" min="3" max="3"/>
-    <col width="54" customWidth="1" min="4" max="4"/>
+    <col width="61" customWidth="1" min="3" max="3"/>
+    <col width="52" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
@@ -917,13 +917,13 @@
       <c r="C2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> JAVA (Lab - BCA Lab by RES, KNS)
-  by RES, KR, KNS, HU, NEB</t>
+  by RM, RES, KNS, SH, HU</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> WAD (Lab - MCA Lab by BE)
-  by LJ, BE, RV, FHP, FHP</t>
+  by SH, RM, BE, RM, RM</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -956,18 +956,18 @@
       <c r="C3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> JAVA (Lab - BCA Lab by RES, KNS)
-  by RES, KR, KNS, HU, NEB</t>
+  by RM, RES, KNS, SH, HU</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> WAD (Lab - MCA Lab by BE)
-  by LJ, BE, RV, FHP, FHP</t>
+  by SH, RM, BE, RM, RM</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> LIBRARY by 3CM                    </t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -994,12 +994,12 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                                   </t>
+          <t xml:space="preserve"> LUNCH by                                                  </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                           </t>
+          <t xml:space="preserve"> LUNCH by                                         </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WAD by BE                                                  </t>
+          <t xml:space="preserve"> WAD by BE                                                 </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3CS SI                               </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CS SI                             </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3CS SI                                       </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CS SI                                      </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBRARY by 3CM                                     </t>
+          <t xml:space="preserve"> language by                                      </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1105,12 +1105,12 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                        </t>
+          <t xml:space="preserve">Free                                                       </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by                                        </t>
+          <t xml:space="preserve"> activity by                                      </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> language by                       </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                         </t>
+          <t xml:space="preserve"> NA                                                        </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                 </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                         </t>
+          <t xml:space="preserve"> NA                                                        </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                 </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                         </t>
+          <t xml:space="preserve"> NA                                                        </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                 </t>
+          <t xml:space="preserve"> NA                                               </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1260,11 +1260,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="105" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="55" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="108" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                                                                    </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                       </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                                                                    </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                       </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                                                                    </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                                                       </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -1420,12 +1420,13 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DA by AMR                         </t>
+          <t xml:space="preserve"> DA by AMR                                                                                             </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DA by AMR                         </t>
+          <t xml:space="preserve"> WT by HU
+ GA by CHA               </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -1436,12 +1437,13 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DA by AMR                         </t>
+          <t xml:space="preserve"> WT by HU
+ GA by CHA               </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                      </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -1458,29 +1460,28 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBRARY by 5CME                   </t>
+          <t xml:space="preserve"> LIBRARY by 5CME                                                                                       </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by HU
- GA by CHA               </t>
+          <t xml:space="preserve"> DA by AMR                         </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> DA (Lab - BSc Lab by AMR)
-  by AMR, APR, NEB, RM, BE</t>
+  by SA, FHP, CYN, MN, AMR</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> DA by AMR                         </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                      </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1497,8 +1498,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by HU
- GA by CHA               </t>
+          <t xml:space="preserve">Free                                                                                                   </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -1509,7 +1509,7 @@
       <c r="D7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> DA (Lab - BSc Lab by AMR)
-  by AMR, APR, NEB, RM, BE</t>
+  by SA, FHP, CYN, MN, AMR</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                                                                      </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -1536,27 +1536,27 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> LUNCH by                                                                                              </t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LUNCH by                                            </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LUNCH by                                            </t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> LUNCH by                          </t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LUNCH by                                                                                                 </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -1573,7 +1573,10 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> WT (Lab - BCA Lab by HU)
+ GA (Lab - BCA Lab by CHA)
+  by SA, RM, SH, RV, HU
+  by CHA, SK, TM, NEB, APR</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -1593,10 +1596,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT (Lab - MCA Lab by HU)
- GA (Lab - MCA Lab by CHA)
-  by RES, HU, MAN, VKR, SD
-  by NR, KNS, CYN, MN, CHA</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -1613,7 +1613,10 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> WT (Lab - BCA Lab by HU)
+ GA (Lab - BCA Lab by CHA)
+  by SA, RM, SH, RV, HU
+  by CHA, SK, TM, NEB, APR</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -1633,10 +1636,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT (Lab - MCA Lab by HU)
- GA (Lab - MCA Lab by CHA)
-  by RES, HU, MAN, VKR, SD
-  by NR, KNS, CYN, MN, CHA</t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -1667,7 +1667,7 @@
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="71" customWidth="1" min="2" max="2"/>
     <col width="71" customWidth="1" min="3" max="3"/>
-    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="42" customWidth="1" min="4" max="4"/>
     <col width="41" customWidth="1" min="5" max="5"/>
     <col width="38" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>PY (Lab - BCA Lab by TM, VA) in 3BCA A</t>
+          <t xml:space="preserve">PY (Lab - BCA Lab by TM, VA) in 3BCA A  </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>PY (Lab - BCA Lab by TM, VA) in 3BCA A</t>
+          <t xml:space="preserve">PY (Lab - BCA Lab by TM, VA) in 3BCA A  </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                  </t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A   </t>
+          <t>OOP (Lab - BCA Lab by KNS, LJ) in 1BCA B</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A   </t>
+          <t>OOP (Lab - BCA Lab by KNS, LJ) in 1BCA B</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                  </t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                  </t>
+          <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -1977,27 +1977,28 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">WT (Lab - BCA Lab by HU) in 5CME
+GA (Lab - BCA Lab by CHA) in 5CME   </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
-        </is>
-      </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BCA Lab by FHP) in 1CM     </t>
+          <t>OOP (Lab - BCA Lab by SA, CHA) in 1BCA A</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (Lab - BCA Lab by KR) in 1BCA A     </t>
+          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A    </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BCA Lab by SR, LJ) in 1CS</t>
+          <t>DCF (Lab - BCA Lab by SR, MN) in 1CM</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -2014,27 +2015,28 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">WT (Lab - BCA Lab by HU) in 5CME
+GA (Lab - BCA Lab by CHA) in 5CME   </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">OOP (Lab - BCA Lab by SA, CHA) in 1BCA A                             </t>
-        </is>
-      </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BCA Lab by FHP) in 1CM     </t>
+          <t>OOP (Lab - BCA Lab by SA, CHA) in 1BCA A</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WT (Lab - BCA Lab by KR) in 1BCA A     </t>
+          <t xml:space="preserve">PSD (Lab - BCA Lab by NR) in 1BCA A    </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BCA Lab by SR, LJ) in 1CS</t>
+          <t>DCF (Lab - BCA Lab by SR, MN) in 1CM</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -2065,9 +2067,9 @@
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="73" customWidth="1" min="2" max="2"/>
     <col width="73" customWidth="1" min="3" max="3"/>
-    <col width="42" customWidth="1" min="4" max="4"/>
+    <col width="37" customWidth="1" min="4" max="4"/>
     <col width="42" customWidth="1" min="5" max="5"/>
-    <col width="68" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2122,7 +2124,7 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - MCA Lab by BE) in 3CS        </t>
+          <t xml:space="preserve">WAD (Lab - MCA Lab by BE) in 3CS   </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -2132,7 +2134,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 3BCA B                               </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -2159,7 +2161,7 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - MCA Lab by BE) in 3CS        </t>
+          <t xml:space="preserve">WAD (Lab - MCA Lab by BE) in 3CS   </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -2169,7 +2171,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by VKR) in 3BCA B                               </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -2196,17 +2198,17 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                    </t>
-        </is>
-      </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -2235,7 +2237,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
+          <t>MA (Lab - MCA Lab by VKR) in 3BCA B</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -2245,7 +2247,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B                               </t>
+          <t>MA (Lab - MCA Lab by MAN) in 5BCA B</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -2274,7 +2276,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>OOP (Lab - MCA Lab by KNS, LJ) in 1BCA B</t>
+          <t>MA (Lab - MCA Lab by VKR) in 3BCA B</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -2284,7 +2286,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">MA (Lab - MCA Lab by MAN) in 5BCA B                               </t>
+          <t>MA (Lab - MCA Lab by MAN) in 5BCA B</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -2311,7 +2313,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -2321,7 +2323,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -2348,17 +2350,17 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free                                    </t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                                    </t>
-        </is>
-      </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                              </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -2375,17 +2377,17 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">WT (Lab - MCA Lab by KR) in 1BCA A                                     </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">PSD (Lab - MCA Lab by APR) in 1BCA B                                   </t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WT (Lab - MCA Lab by SG) in 1BCA B                                     </t>
-        </is>
-      </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">DAS (Lab - MCA Lab by FHP) in 1CM  </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -2395,8 +2397,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>WT (Lab - MCA Lab by HU) in 5CME
-GA (Lab - MCA Lab by CHA) in 5CME</t>
+          <t xml:space="preserve">DAS (Lab - MCA Lab by BE) in 1CS   </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -2413,17 +2414,17 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">WT (Lab - MCA Lab by KR) in 1BCA A                                     </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">PSD (Lab - MCA Lab by APR) in 1BCA B                                   </t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WT (Lab - MCA Lab by SG) in 1BCA B                                     </t>
-        </is>
-      </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                    </t>
+          <t xml:space="preserve">DAS (Lab - MCA Lab by FHP) in 1CM  </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -2433,8 +2434,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>WT (Lab - MCA Lab by HU) in 5CME
-GA (Lab - MCA Lab by CHA) in 5CME</t>
+          <t xml:space="preserve">DAS (Lab - MCA Lab by BE) in 1CS   </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -2467,8 +2467,8 @@
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="38" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="38" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2532,12 +2532,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free                                </t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2569,12 +2569,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM   </t>
+          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM    </t>
         </is>
       </c>
     </row>
@@ -2606,12 +2606,12 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM   </t>
+          <t xml:space="preserve">WAD (Lab - BSc Lab by TM) in 1CM    </t>
         </is>
       </c>
     </row>
@@ -2643,12 +2643,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                </t>
+          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
+          <t>DCF (Lab - BSc Lab by SR, LJ) in 1CS</t>
         </is>
       </c>
     </row>
@@ -2680,12 +2680,12 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
+          <t xml:space="preserve">WT (Lab - BSc Lab by SG) in 1BCA B </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">DAS (Lab - BSc Lab by BE) in 1CS   </t>
+          <t>DCF (Lab - BSc Lab by SR, LJ) in 1CS</t>
         </is>
       </c>
     </row>
@@ -2717,12 +2717,12 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>DCF (Lab - BSc Lab by SR, MN) in 1CM</t>
+          <t xml:space="preserve">WT (Lab - BSc Lab by SG) in 1BCA B </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                </t>
         </is>
       </c>
     </row>
@@ -2754,12 +2754,12 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free                                </t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free                                </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2828,12 +2828,12 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Free                               </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free                                </t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Free                               </t>
         </is>
       </c>
     </row>
@@ -2857,11 +2857,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="56" customWidth="1" min="2" max="2"/>
-    <col width="53" customWidth="1" min="3" max="3"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="54" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="58" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="54" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -2943,12 +2943,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -2963,12 +2963,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by APR                        </t>
+          <t xml:space="preserve"> MATHS by TEMP                     </t>
         </is>
       </c>
     </row>
@@ -2980,12 +2980,12 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -3000,12 +3000,12 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MATHS by TEMP                     </t>
+          <t xml:space="preserve"> LIBRARY by 1BCA B                 </t>
         </is>
       </c>
     </row>
@@ -3017,17 +3017,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by KNS, LJ                                       </t>
+          <t xml:space="preserve"> OOP by KNS, LJ                    </t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                                            </t>
+          <t xml:space="preserve"> MDC by                                             </t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP (Lab - MCA Lab by KNS, LJ)    </t>
+          <t xml:space="preserve"> OOP (Lab - BCA Lab by KNS, LJ)    </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> English by                        </t>
+          <t xml:space="preserve"> English by                                         </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by SG                                             </t>
+          <t xml:space="preserve"> PSD by APR                        </t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                                            </t>
+          <t xml:space="preserve"> MDC by                                             </t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP (Lab - MCA Lab by KNS, LJ)    </t>
+          <t xml:space="preserve"> OOP (Lab - BCA Lab by KNS, LJ)    </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -3074,7 +3074,8 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by APR                        </t>
+          <t xml:space="preserve"> WT (Lab - BSc Lab by SG)
+  by KNS, TM, SG, CYN, AMR</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3091,12 +3092,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HED by                                               </t>
+          <t xml:space="preserve"> HED by                            </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by KNS, LJ                                    </t>
+          <t xml:space="preserve"> OOP by KNS, LJ                                     </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -3111,7 +3112,8 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MATHS by TEMP                     </t>
+          <t xml:space="preserve"> WT (Lab - BSc Lab by SG)
+  by KNS, TM, SG, CYN, AMR</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3128,12 +3130,12 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                             </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                          </t>
+          <t xml:space="preserve"> LUNCH by                                           </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -3148,7 +3150,7 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                          </t>
+          <t xml:space="preserve"> LUNCH by                                           </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -3165,14 +3167,13 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> WT by SG                          </t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> PSD (Lab - MCA Lab by APR)
-  by AMR, APR, NEB, RM, VA</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WT (Lab - MCA Lab by SG)
-  by AMR, LJ, APR, RV, SG</t>
+  by SG, BE, APR, RV, KR</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -3183,12 +3184,12 @@
       <c r="E9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> OOP (Lab - MCA Lab by KNS, LJ)
-  by SD, LJ, NR, KNS, SR</t>
+  by SA, KNS, LJ, SD, RV</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBRARY by 1BCA B                 </t>
+          <t xml:space="preserve"> PSD by APR                                         </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -3205,14 +3206,13 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> MATHS by TEMP                     </t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> PSD (Lab - MCA Lab by APR)
-  by AMR, APR, NEB, RM, VA</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WT (Lab - MCA Lab by SG)
-  by AMR, LJ, APR, RV, SG</t>
+  by SG, BE, APR, RV, KR</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -3223,12 +3223,12 @@
       <c r="E10" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> OOP (Lab - MCA Lab by KNS, LJ)
-  by SD, LJ, NR, KNS, SR</t>
+  by SA, KNS, LJ, SD, RV</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MATHS by TEMP                     </t>
+          <t xml:space="preserve"> MATHS by TEMP                                      </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -3259,9 +3259,9 @@
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="56" customWidth="1" min="4" max="4"/>
+    <col width="57" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="56" customWidth="1" min="6" max="6"/>
+    <col width="54" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -3317,7 +3317,7 @@
       <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> PY (Lab - BCA Lab by TM, VA)
-  by SD, TM, NR, KNS, VA</t>
+  by SME, SK, TM, NEB, VA</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
@@ -3328,7 +3328,7 @@
       <c r="F2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> MA (Lab - BCA Lab by MAN)
-  by AMR, SME, MAN, APR, RA</t>
+  by MAN, SME, NR, RA, SD</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -3356,7 +3356,7 @@
       <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> PY (Lab - BCA Lab by TM, VA)
-  by SD, TM, NR, KNS, VA</t>
+  by SME, SK, TM, NEB, VA</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
@@ -3367,7 +3367,7 @@
       <c r="F3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> MA (Lab - BCA Lab by MAN)
-  by AMR, SME, MAN, APR, RA</t>
+  by MAN, SME, NR, RA, SD</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                             </t>
+          <t xml:space="preserve"> LUNCH by                                              </t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                             </t>
+          <t xml:space="preserve"> LUNCH by                                           </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OS by RV                                             </t>
+          <t xml:space="preserve"> OS by RV                                              </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI                              </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI                            </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by MAN                                            </t>
+          <t xml:space="preserve"> MA by MAN                                             </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -3478,7 +3478,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accounting by -, -                                   </t>
+          <t xml:space="preserve"> Accounting by -, -                                 </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by                                          </t>
+          <t xml:space="preserve"> activity by                                           </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -3515,7 +3515,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accounting by -, -                                   </t>
+          <t xml:space="preserve"> Accounting by -, -                                 </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                                    </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                                    </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                                    </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -3657,9 +3657,9 @@
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="37" customWidth="1" min="4" max="4"/>
-    <col width="58" customWidth="1" min="5" max="5"/>
-    <col width="53" customWidth="1" min="6" max="6"/>
+    <col width="54" customWidth="1" min="4" max="4"/>
+    <col width="59" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -3714,19 +3714,18 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by RES, HU                     </t>
+          <t xml:space="preserve"> PY by RES, HU                                      </t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> PY (Lab - BCA Lab by RES, HU)
-  by RES, HU, SA, CHA, NR</t>
+  by CHA, RES, FHP, HU, KR</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA (Lab - MCA Lab by VKR)
-  by VKR, TM, RV, SA, SG</t>
+          <t xml:space="preserve"> MA by VKR                         </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -3753,19 +3752,18 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by RES, HU                     </t>
+          <t xml:space="preserve"> PY by RES, HU                                      </t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> PY (Lab - BCA Lab by RES, HU)
-  by RES, HU, SA, CHA, NR</t>
+  by CHA, RES, FHP, HU, KR</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA (Lab - MCA Lab by VKR)
-  by VKR, TM, RV, SA, SG</t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI           </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -3792,17 +3790,17 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> LUNCH by                                           </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LUNCH by                                                </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> LUNCH by                          </t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LUNCH by                                               </t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LUNCH by                                          </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -3829,17 +3827,18 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OS by APR                         </t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by VKR)
+  by VKR, RES, TM, SG, BE</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> language by                                            </t>
+          <t xml:space="preserve"> language by                                             </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI                           </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI           </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -3866,17 +3865,18 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by VKR                         </t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by VKR)
+  by VKR, RES, TM, SG, BE</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LIBRARY by 3 BCA B                                     </t>
+          <t xml:space="preserve"> OS by APR                                               </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accounting by -, -                                </t>
+          <t xml:space="preserve"> Accounting by -, -                </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by                       </t>
+          <t xml:space="preserve"> activity by                                        </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI                                </t>
+          <t xml:space="preserve"> LIBRARY by 3 BCA B                                      </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accounting by -, -                                </t>
+          <t xml:space="preserve"> Accounting by -, -                </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -3940,17 +3940,17 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                     </t>
+          <t xml:space="preserve"> NA                                                      </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -3977,17 +3977,17 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                     </t>
+          <t xml:space="preserve"> NA                                                      </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -4014,17 +4014,17 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                     </t>
+          <t xml:space="preserve"> NA                                                      </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -4054,10 +4054,10 @@
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="54" customWidth="1" min="2" max="2"/>
-    <col width="82" customWidth="1" min="3" max="3"/>
+    <col width="79" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="56" customWidth="1" min="6" max="6"/>
+    <col width="55" customWidth="1" min="6" max="6"/>
     <col width="53" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by VKR                                                                      </t>
+          <t xml:space="preserve"> MA by VKR                                                                   </t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -4125,7 +4125,7 @@
       <c r="F2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> GA by VA
- BI by NEB                                  </t>
+ BI by NEB                                 </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CN by SME                                                                      </t>
+          <t xml:space="preserve"> CN by SME                                                                   </t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by VA                                            </t>
+          <t xml:space="preserve"> PRJ by VA                                           </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                                                       </t>
+          <t xml:space="preserve"> LUNCH by                                                                    </t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -4200,13 +4200,13 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                             </t>
+          <t xml:space="preserve"> LUNCH by                                            </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> PRJ (Lab - BCA Lab by VA)
-  by SME, RV, SG, RA, VA</t>
+  by RM, RES, VA, RA, BE</t>
         </is>
       </c>
     </row>
@@ -4226,7 +4226,7 @@
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by RES, MAN, VKR, SD, NEB</t>
+  by SH, SK, NEB, RA, SD</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -4244,13 +4244,13 @@
       <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> MA (Lab - BCA Lab by VKR)
-  by VKR, SD, KNS, FHP, CYN</t>
+  by VKR, CHA, SME, RA, SD</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> PRJ (Lab - BCA Lab by VA)
-  by SME, RV, SG, RA, VA</t>
+  by RM, RES, VA, RA, BE</t>
         </is>
       </c>
     </row>
@@ -4270,7 +4270,7 @@
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by RES, MAN, VKR, SD, NEB</t>
+  by SH, SK, NEB, RA, SD</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -4286,7 +4286,7 @@
       <c r="F6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> MA (Lab - BCA Lab by VKR)
-  by VKR, SD, KNS, FHP, CYN</t>
+  by VKR, CHA, SME, RA, SD</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -4310,7 +4310,7 @@
       <c r="C7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> MM by AMR
- CS by CYN                                                           </t>
+ CS by CYN                                                        </t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by VA                                            </t>
+          <t xml:space="preserve"> PRJ by VA                                           </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                             </t>
+          <t xml:space="preserve"> NA                                                                          </t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                             </t>
+          <t xml:space="preserve"> NA                                                                          </t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                             </t>
+          <t xml:space="preserve"> NA                                                                          </t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -4436,7 +4436,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                   </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -4465,12 +4465,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="81" customWidth="1" min="2" max="2"/>
+    <col width="79" customWidth="1" min="2" max="2"/>
     <col width="54" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="54" customWidth="1" min="6" max="6"/>
-    <col width="53" customWidth="1" min="7" max="7"/>
+    <col width="55" customWidth="1" min="6" max="6"/>
+    <col width="54" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by MAN                                                                     </t>
+          <t xml:space="preserve"> MA by MAN                                                                   </t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -4537,12 +4537,12 @@
       <c r="F2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> GA by VA
- BI by NEB                                </t>
+ BI by NEB                                 </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
     </row>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CN by RA                                                                      </t>
+          <t xml:space="preserve"> CN by RA                                                                    </t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -4574,13 +4574,13 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by SH                                          </t>
+          <t xml:space="preserve"> PRJ by SH                                           </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> GA by VA
- BI by NEB                               </t>
+ BI by NEB                                </t>
         </is>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                                                      </t>
+          <t xml:space="preserve"> LUNCH by                                                                    </t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -4612,13 +4612,13 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                           </t>
+          <t xml:space="preserve"> LUNCH by                                            </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> PRJ (Lab - MCA Lab by SH)
-  by HU, SH, SA, KR, CHA</t>
+  by SME, SH, SK, NEB, NR</t>
         </is>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by RES, SD, FHP, CYN, VA</t>
+  by SME, SH, SK, VA, SG</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -4656,13 +4656,13 @@
       <c r="F5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> MA (Lab - MCA Lab by MAN)
-  by SME, MAN, RM, RA, BE</t>
+  by RES, MAN, RV, APR, HU</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> PRJ (Lab - MCA Lab by SH)
-  by HU, SH, SA, KR, CHA</t>
+  by SME, SH, SK, NEB, NR</t>
         </is>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by RES, SD, FHP, CYN, VA</t>
+  by SME, SH, SK, VA, SG</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -4698,12 +4698,12 @@
       <c r="F6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> MA (Lab - MCA Lab by MAN)
-  by SME, MAN, RM, RA, BE</t>
+  by RES, MAN, RV, APR, HU</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by MAN                                         </t>
+          <t xml:space="preserve"> MA by MAN                                          </t>
         </is>
       </c>
     </row>
@@ -4716,7 +4716,7 @@
       <c r="B7" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> MM by AMR
- CS by CYN                                                          </t>
+ CS by CYN                                                        </t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4737,12 +4737,12 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by SH                                          </t>
+          <t xml:space="preserve"> PRJ by SH                                           </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                            </t>
+          <t xml:space="preserve"> NA                                                                          </t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -4774,12 +4774,12 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                                                  </t>
+        </is>
+      </c>
+      <c r="G8" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> NA                                                 </t>
-        </is>
-      </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                            </t>
+          <t xml:space="preserve"> NA                                                                          </t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -4811,12 +4811,12 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                                                  </t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> NA                                                 </t>
-        </is>
-      </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                            </t>
+          <t xml:space="preserve"> NA                                                                          </t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -4848,12 +4848,12 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                                                  </t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> NA                                                 </t>
-        </is>
-      </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                                </t>
         </is>
       </c>
     </row>
@@ -4879,10 +4879,10 @@
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="37" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="56" customWidth="1" min="4" max="4"/>
+    <col width="55" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
     <col width="56" customWidth="1" min="6" max="6"/>
-    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="55" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4936,22 +4936,22 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                                                  </t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NA                                </t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                </t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                                   </t>
-        </is>
-      </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
     </row>
@@ -4973,23 +4973,23 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                                                  </t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NA                                </t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                </t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                                   </t>
-        </is>
-      </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> WAD (Lab - BSc Lab by TM)
-  by TM </t>
+  by CHA, KNS, TM, APR, SD</t>
         </is>
       </c>
     </row>
@@ -5011,23 +5011,23 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                                                  </t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NA                                </t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> NA                                                   </t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                </t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                                                   </t>
-        </is>
-      </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> WAD (Lab - BSc Lab by TM)
-  by TM </t>
+  by CHA, KNS, TM, APR, SD</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF by SR, MN                                        </t>
+          <t xml:space="preserve"> DCF by SR, MN                                       </t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
     </row>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                  </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -5096,13 +5096,12 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF (Lab - BSc Lab by SR, MN)
-  by LJ, RV, SR, SG, MN</t>
+          <t xml:space="preserve"> DAS by FHP                                           </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
     </row>
@@ -5124,7 +5123,7 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by                                          </t>
+          <t xml:space="preserve"> activity by                                         </t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -5134,13 +5133,12 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF (Lab - BSc Lab by SR, MN)
-  by LJ, RV, SR, SG, MN</t>
+          <t xml:space="preserve">Free                                                  </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
     </row>
@@ -5162,22 +5160,22 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> LUNCH by                                            </t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LUNCH by                          </t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> LUNCH by                                             </t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LUNCH by                          </t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LUNCH by                                             </t>
-        </is>
-      </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
     </row>
@@ -5199,8 +5197,8 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS (Lab - BCA Lab by FHP)
-  by SME, NEB, FHP, RM, RA</t>
+          <t xml:space="preserve"> DAS (Lab - MCA Lab by FHP)
+  by FHP, KNS, LJ, NR, KR</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -5210,12 +5208,13 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS by FHP                                           </t>
+          <t xml:space="preserve"> DCF (Lab - BCA Lab by SR, MN)
+  by LJ, RV, MN, SR, HU</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
     </row>
@@ -5237,8 +5236,8 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS (Lab - BCA Lab by FHP)
-  by SME, NEB, FHP, RM, RA</t>
+          <t xml:space="preserve"> DAS (Lab - MCA Lab by FHP)
+  by FHP, KNS, LJ, NR, KR</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -5248,12 +5247,13 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                  </t>
+          <t xml:space="preserve"> DCF (Lab - BCA Lab by SR, MN)
+  by LJ, RV, MN, SR, HU</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
     </row>
@@ -5280,7 +5280,7 @@
     <col width="45" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
-    <col width="52" customWidth="1" min="5" max="5"/>
+    <col width="55" customWidth="1" min="5" max="5"/>
     <col width="37" customWidth="1" min="6" max="6"/>
     <col width="37" customWidth="1" min="7" max="7"/>
   </cols>
@@ -5343,7 +5343,7 @@
       <c r="E2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> DAP (Lab - MCA Lab by RM)
-  by RM, BE, BE, LJ, LJ</t>
+  by VKR, RM, MAN, SH, APR</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -5382,7 +5382,7 @@
       <c r="E3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> DAP (Lab - MCA Lab by RM)
-  by RM, BE, BE, LJ, LJ</t>
+  by VKR, RM, MAN, SH, APR</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                         </t>
+          <t xml:space="preserve"> LUNCH by                                            </t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3CM SI                             </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CM SI                                </t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -5488,12 +5488,12 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> language by                       </t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                              </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -5530,12 +5530,12 @@
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                              </t>
+          <t xml:space="preserve">Free                                                 </t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                               </t>
+          <t xml:space="preserve"> language by                       </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                               </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                               </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                               </t>
+          <t xml:space="preserve"> NA                                                  </t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -5679,8 +5679,8 @@
     <col width="37" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="58" customWidth="1" min="6" max="6"/>
-    <col width="52" customWidth="1" min="7" max="7"/>
+    <col width="54" customWidth="1" min="6" max="6"/>
+    <col width="57" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5744,12 +5744,12 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                     </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                               </t>
+          <t xml:space="preserve"> NA                                                    </t>
         </is>
       </c>
     </row>
@@ -5781,12 +5781,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                     </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                              </t>
+          <t xml:space="preserve">Free                                                   </t>
         </is>
       </c>
     </row>
@@ -5818,12 +5818,12 @@
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                     </t>
+          <t xml:space="preserve"> NA                                                 </t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                              </t>
+          <t xml:space="preserve">Free                                                   </t>
         </is>
       </c>
     </row>
@@ -5855,13 +5855,13 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> English by                                             </t>
+          <t xml:space="preserve"> English by                                         </t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS (Lab - BSc Lab by BE)
-  by TM, BE, SK, TM, TM</t>
+          <t xml:space="preserve"> DCF (Lab - BSc Lab by SR, LJ)
+  by LJ, AMR, SR, RV, KR</t>
         </is>
       </c>
     </row>
@@ -5893,13 +5893,13 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                    </t>
+          <t xml:space="preserve">Free                                                </t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS (Lab - BSc Lab by BE)
-  by TM, BE, SK, TM, TM</t>
+          <t xml:space="preserve"> DCF (Lab - BSc Lab by SR, LJ)
+  by LJ, AMR, SR, RV, KR</t>
         </is>
       </c>
     </row>
@@ -5931,12 +5931,12 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                                                    </t>
+          <t xml:space="preserve">Free                                                </t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                               </t>
+          <t xml:space="preserve"> NA                                                    </t>
         </is>
       </c>
     </row>
@@ -5968,12 +5968,12 @@
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                               </t>
+          <t xml:space="preserve"> LUNCH by                                           </t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                               </t>
+          <t xml:space="preserve"> NA                                                    </t>
         </is>
       </c>
     </row>
@@ -6005,13 +6005,13 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF (Lab - BCA Lab by SR, LJ)
-  by LJ, SR, SME, SME, RA</t>
+          <t xml:space="preserve"> DAS (Lab - MCA Lab by BE)
+  by FHP, TM, SG, CYN, BE</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                               </t>
+          <t xml:space="preserve"> NA                                                    </t>
         </is>
       </c>
     </row>
@@ -6043,13 +6043,13 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF (Lab - BCA Lab by SR, LJ)
-  by LJ, SR, SME, SME, RA</t>
+          <t xml:space="preserve"> DAS (Lab - MCA Lab by BE)
+  by FHP, TM, SG, CYN, BE</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                               </t>
+          <t xml:space="preserve"> NA                                                    </t>
         </is>
       </c>
     </row>

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -553,12 +553,12 @@
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by KR, LJ, AMR, APR, TM</t>
+          <t xml:space="preserve"> WT by AMR, KR, RM, LJ, APR</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by KR, LJ, AMR, APR, TM</t>
+          <t xml:space="preserve"> WT by AMR, KR, RM, LJ, APR</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by SD, SA, RV, CHA, SH</t>
+          <t xml:space="preserve"> OOP by RV, SH, CHA, SA, SD</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by SD, SA, RV, CHA, SH</t>
+          <t xml:space="preserve"> OOP by RV, SH, CHA, SA, SD</t>
         </is>
       </c>
     </row>
@@ -674,47 +674,47 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                      </t>
+          <t xml:space="preserve"> MDC by                     </t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by SA, CHA              </t>
+          <t xml:space="preserve"> OOP by SA, CHA             </t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Library by lib              </t>
+          <t xml:space="preserve"> Library by lib             </t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                    </t>
+          <t xml:space="preserve"> LUNCH by                   </t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by NR, FHP, CHA, SH, APR</t>
+          <t xml:space="preserve"> PSD by SH, CHA, NR, APR, SD</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by NR, FHP, CHA, SH, APR</t>
+          <t xml:space="preserve"> PSD by SH, CHA, NR, APR, SD</t>
         </is>
       </c>
     </row>
@@ -783,27 +783,27 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA          </t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WT by KR    </t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> MATHS by XYZ</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> WT by KR    </t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free         </t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free         </t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA          </t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
@@ -994,47 +994,47 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                           </t>
+          <t xml:space="preserve"> NA                          </t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                           </t>
+          <t xml:space="preserve"> NA                          </t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                           </t>
+          <t xml:space="preserve"> NA                          </t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                       </t>
+          <t xml:space="preserve"> MDC by                      </t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                       </t>
+          <t xml:space="preserve"> MDC by                      </t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by KNS, LJ               </t>
+          <t xml:space="preserve"> OOP by KNS, LJ              </t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                     </t>
+          <t xml:space="preserve"> LUNCH by                    </t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by NEB, APR, SME, AMR, RM</t>
+          <t xml:space="preserve"> PSD by AMR, BE, NEB, LJ, APR</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by NEB, APR, SME, AMR, RM</t>
+          <t xml:space="preserve"> PSD by AMR, BE, NEB, LJ, APR</t>
         </is>
       </c>
     </row>
@@ -1133,12 +1133,12 @@
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by SG, SA, RV, LJ, KNS</t>
+          <t xml:space="preserve"> OOP by RV, SG, LJ, SA, KNS</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by SG, SA, RV, LJ, KNS</t>
+          <t xml:space="preserve"> OOP by RV, SG, LJ, SA, KNS</t>
         </is>
       </c>
     </row>
@@ -1150,47 +1150,47 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                      </t>
+          <t xml:space="preserve"> NA                       </t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                      </t>
+          <t xml:space="preserve"> NA                       </t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                      </t>
+          <t xml:space="preserve"> NA                       </t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> English by              </t>
+          <t xml:space="preserve"> English by               </t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> English by              </t>
+          <t xml:space="preserve"> English by               </t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by APR              </t>
+          <t xml:space="preserve"> PSD by APR               </t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                </t>
+          <t xml:space="preserve"> LUNCH by                 </t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by SG, BE, RV, SH, TM</t>
+          <t xml:space="preserve"> WT by CHA, SG, BE, TM, HU</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by SG, BE, RV, SH, TM</t>
+          <t xml:space="preserve"> WT by CHA, SG, BE, TM, HU</t>
         </is>
       </c>
     </row>
@@ -1207,27 +1207,27 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA           </t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> MATHS by TEMP</t>
         </is>
       </c>
-      <c r="D20" s="3" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> MATHS by TEMP</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free          </t>
         </is>
       </c>
-      <c r="F20" s="3" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free          </t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA           </t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
@@ -1470,47 +1470,47 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by NR, VA, KNS, SK, TM</t>
+          <t xml:space="preserve"> PY by NR, TM, VA, SME, KNS</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by NR, VA, KNS, SK, TM</t>
+          <t xml:space="preserve"> PY by NR, TM, VA, SME, KNS</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                 </t>
+          <t xml:space="preserve"> LUNCH by                  </t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OS by RV                 </t>
+          <t xml:space="preserve"> OS by RV                  </t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI  </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI   </t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by              </t>
+          <t xml:space="preserve"> activity by               </t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
     </row>
@@ -1574,12 +1574,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by SD, CYN, NR, MAN, FHP</t>
+          <t xml:space="preserve"> MA by SH, FHP, MAN, CYN, SD</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by SD, CYN, NR, MAN, FHP</t>
+          <t xml:space="preserve"> MA by SH, FHP, MAN, CYN, SD</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1631,32 +1631,33 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                     </t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> MA by MAN              </t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> INTERNSHIP by 3BCA A SI</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="F32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                    </t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="G32" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> MA by MAN              </t>
         </is>
       </c>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                     </t>
-        </is>
-      </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                     </t>
+          <t xml:space="preserve"> NA
+ NA                 </t>
         </is>
       </c>
       <c r="I32" s="3" t="inlineStr">
@@ -1909,12 +1910,12 @@
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by SD, SA, VKR, SH, TM</t>
+          <t xml:space="preserve"> MA by SH, VKR, TM, SA, SD</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by SD, SA, VKR, SH, TM</t>
+          <t xml:space="preserve"> MA by SH, VKR, TM, SA, SD</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
@@ -1946,47 +1947,47 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by RES, SD, KR, HU, SK</t>
+          <t xml:space="preserve"> PY by HU, FHP, SK, SME, RES</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by RES, SD, KR, HU, SK</t>
+          <t xml:space="preserve"> PY by HU, FHP, SK, SME, RES</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                 </t>
+          <t xml:space="preserve"> LUNCH by                   </t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> language by              </t>
+          <t xml:space="preserve"> language by                </t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI  </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI    </t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Library by lib           </t>
+          <t xml:space="preserve"> Library by lib             </t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
     </row>
@@ -2055,32 +2056,33 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                     </t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> MA by VKR              </t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> INTERNSHIP by 3BCA B SI</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="F44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free                    </t>
         </is>
       </c>
-      <c r="F44" s="3" t="inlineStr">
+      <c r="G44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> MA by VKR              </t>
         </is>
       </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA                     </t>
-        </is>
-      </c>
       <c r="H44" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                     </t>
+          <t xml:space="preserve"> NA
+ NA                 </t>
         </is>
       </c>
       <c r="I44" s="3" t="inlineStr">
@@ -2269,12 +2271,12 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by SG, RA, RV, KR, VA                                                   </t>
+          <t xml:space="preserve"> PRJ by RV, RA, KR, SG, VA                                                   </t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by SG, RA, RV, KR, VA                                                   </t>
+          <t xml:space="preserve"> PRJ by RV, RA, KR, SG, VA                                                   </t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -2286,14 +2288,14 @@
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by NEB, SD, RA, SH, SK</t>
+  by SH, RA, SK, NEB, SD</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by NEB, SD, RA, SH, SK</t>
+  by SH, RA, SK, NEB, SD</t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
@@ -2487,48 +2489,48 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                        </t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> GA by VA
- BI by NEB      </t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MA by SG, BE, NR, RV, VKR</t>
+ BI by NEB       </t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by SG, BE, NR, RV, VKR</t>
+          <t xml:space="preserve"> MA by VKR, SG, BE, CYN, HU</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CN by SME                </t>
+          <t xml:space="preserve"> MA by VKR, SG, BE, CYN, HU</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CN by SME                </t>
+          <t xml:space="preserve"> CN by SME                 </t>
         </is>
       </c>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> CN by SME                 </t>
         </is>
       </c>
       <c r="I56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
     </row>
@@ -2652,52 +2654,52 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ (Lab - BSc Lab by SH)                                                   </t>
+          <t xml:space="preserve"> PRJ (Lab - BSc Lab by SH)                                                  </t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ (Lab - BSc Lab by SH)                                                   </t>
+          <t xml:space="preserve"> PRJ (Lab - BSc Lab by SH)                                                  </t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                                                    </t>
+          <t xml:space="preserve"> LUNCH by                                                                   </t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by SG, SD, VA, SH, SME</t>
+  by SH, SK, SG, VA, SD</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by SG, SD, VA, SH, SME</t>
+  by SH, SK, SG, VA, SD</t>
         </is>
       </c>
       <c r="G63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> MM by AMR
- CS by CYN                                                        </t>
+ CS by CYN                                                       </t>
         </is>
       </c>
       <c r="H63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                          </t>
+          <t xml:space="preserve"> NA                                                                         </t>
         </is>
       </c>
       <c r="I63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                          </t>
+          <t xml:space="preserve"> NA                                                                         </t>
         </is>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                          </t>
+          <t xml:space="preserve"> NA                                                                         </t>
         </is>
       </c>
     </row>
@@ -2709,12 +2711,12 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by BE, HU, LJ, SH, SK                          </t>
+          <t xml:space="preserve"> PRJ by SH, SK, RM, SME, HU                         </t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by BE, HU, LJ, SH, SK                          </t>
+          <t xml:space="preserve"> PRJ by SH, SK, RM, SME, HU                         </t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2925,48 +2927,48 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA                         </t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> GA by VA
- BI by NEB         </t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> MA by RES, CYN, MAN, CHA, HU</t>
+ BI by NEB        </t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by RES, CYN, MAN, CHA, HU</t>
+          <t xml:space="preserve"> MA by RV, MAN, NR, KNS, RES</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CN by RA                    </t>
+          <t xml:space="preserve"> MA by RV, MAN, NR, KNS, RES</t>
         </is>
       </c>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CN by RA                    </t>
+          <t xml:space="preserve"> CN by RA                   </t>
         </is>
       </c>
       <c r="H68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> CN by RA                   </t>
         </is>
       </c>
       <c r="I68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
     </row>
@@ -3194,47 +3196,47 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                         </t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF by SR, MN               </t>
+          <t xml:space="preserve"> DCF by SR, MN              </t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                         </t>
+          <t xml:space="preserve">Free                        </t>
         </is>
       </c>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by                 </t>
+          <t xml:space="preserve"> activity by                </t>
         </is>
       </c>
       <c r="H77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                    </t>
+          <t xml:space="preserve"> LUNCH by                   </t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS by NEB, KR, FHP, SME, RM</t>
+          <t xml:space="preserve"> DAS by FHP, RA, KR, SK, NEB</t>
         </is>
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS by NEB, KR, FHP, SME, RM</t>
+          <t xml:space="preserve"> DAS by FHP, RA, KR, SK, NEB</t>
         </is>
       </c>
     </row>
@@ -3298,47 +3300,47 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> English by                 </t>
+          <t xml:space="preserve"> English by                </t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> English by                 </t>
+          <t xml:space="preserve"> English by                </t>
         </is>
       </c>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS by FHP                 </t>
+          <t xml:space="preserve"> DAS by FHP                </t>
         </is>
       </c>
       <c r="H79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                   </t>
+          <t xml:space="preserve"> LUNCH by                  </t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF by SR, HU, CHA, AMR, MN</t>
+          <t xml:space="preserve"> DCF by RV, MN, NR, SME, SR</t>
         </is>
       </c>
       <c r="J79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF by SR, HU, CHA, AMR, MN</t>
+          <t xml:space="preserve"> DCF by RV, MN, NR, SME, SR</t>
         </is>
       </c>
     </row>
@@ -3350,47 +3352,47 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                          </t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WAD by LJ, SH, APR, KNS, TM</t>
+          <t xml:space="preserve"> NA                          </t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WAD by LJ, SH, APR, KNS, TM</t>
+          <t xml:space="preserve"> WAD by AMR, CHA, TM, RM, APR</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                        </t>
+          <t xml:space="preserve"> WAD by AMR, CHA, TM, RM, APR</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                        </t>
+          <t xml:space="preserve">Free                         </t>
         </is>
       </c>
       <c r="G80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve">Free                         </t>
         </is>
       </c>
       <c r="H80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                          </t>
         </is>
       </c>
       <c r="I80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                          </t>
         </is>
       </c>
       <c r="J80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                          </t>
         </is>
       </c>
     </row>
@@ -3514,12 +3516,12 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAVA by SR, VKR, MAN, MN, MAN</t>
+          <t xml:space="preserve"> JAVA by MN, VKR, SR, MAN, MAN</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAVA by SR, VKR, MAN, MN, MAN</t>
+          <t xml:space="preserve"> JAVA by MN, VKR, SR, MAN, MAN</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
@@ -3670,47 +3672,47 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAP by NEB, RA, SR, SME, RM</t>
+          <t xml:space="preserve"> DAP by RA, KR, NEB, RM, SR</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAP by NEB, RA, SR, SME, RM</t>
+          <t xml:space="preserve"> DAP by RA, KR, NEB, RM, SR</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                   </t>
+          <t xml:space="preserve"> LUNCH by                  </t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3CM SI       </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CM SI      </t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                        </t>
+          <t xml:space="preserve">Free                       </t>
         </is>
       </c>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Library by lib             </t>
+          <t xml:space="preserve"> Library by lib            </t>
         </is>
       </c>
       <c r="H90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="I90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
     </row>
@@ -3779,32 +3781,33 @@
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA     </t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="D92" s="3" t="inlineStr">
+      <c r="E92" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="E92" s="3" t="inlineStr">
+      <c r="F92" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="F92" s="3" t="inlineStr">
+      <c r="G92" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="G92" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA     </t>
-        </is>
-      </c>
       <c r="H92" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA     </t>
+          <t xml:space="preserve"> NA
+ NA </t>
         </is>
       </c>
       <c r="I92" s="3" t="inlineStr">
@@ -3953,12 +3956,12 @@
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS by RES, RA, BE, KR, FHP</t>
+          <t xml:space="preserve"> DAS by FHP, RA, KR, BE, RES</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS by RES, RA, BE, KR, FHP</t>
+          <t xml:space="preserve"> DAS by FHP, RA, KR, BE, RES</t>
         </is>
       </c>
       <c r="G99" s="3" t="inlineStr">
@@ -4198,47 +4201,47 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                      </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                      </t>
+          <t xml:space="preserve">Free                       </t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF by SR, LJ, SK, RM, TM</t>
+          <t xml:space="preserve">Free                       </t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF by SR, LJ, SK, RM, TM</t>
+          <t xml:space="preserve"> DCF by SK, TM, SR, LJ, APR</t>
         </is>
       </c>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> DCF by SK, TM, SR, LJ, APR</t>
         </is>
       </c>
       <c r="H104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="I104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                        </t>
         </is>
       </c>
     </row>
@@ -4466,12 +4469,12 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WAD by RA, LJ, BE, RA, RA</t>
+          <t xml:space="preserve"> WAD by BE, RM, LJ, RM, RM</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WAD by RA, LJ, BE, RA, RA</t>
+          <t xml:space="preserve"> WAD by BE, RM, LJ, RM, RM</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -4627,32 +4630,33 @@
       </c>
       <c r="C116" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA     </t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="D116" s="3" t="inlineStr">
+      <c r="E116" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="E116" s="3" t="inlineStr">
+      <c r="F116" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="F116" s="3" t="inlineStr">
+      <c r="G116" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="G116" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA     </t>
-        </is>
-      </c>
       <c r="H116" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA     </t>
+          <t xml:space="preserve"> NA
+ NA </t>
         </is>
       </c>
       <c r="I116" s="3" t="inlineStr">
@@ -4823,16 +4827,16 @@
         <is>
           <t xml:space="preserve"> WT (Lab - BCA Lab by HU)
  GA (Lab - MCA Lab by CHA)
-  by RA, SA, RV, HU, SK
-  by NEB, BE, CHA, SME, RM</t>
+  by RV, RA, SME, SA, HU
+  by CHA, SK, BE, TM, NEB</t>
         </is>
       </c>
       <c r="J123" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> WT (Lab - BCA Lab by HU)
  GA (Lab - MCA Lab by CHA)
-  by RA, SA, RV, HU, SK
-  by NEB, BE, CHA, SME, RM</t>
+  by RV, RA, SME, SA, HU
+  by CHA, SK, BE, TM, NEB</t>
         </is>
       </c>
     </row>
@@ -4918,12 +4922,12 @@
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DA by RES, CYN, HU, AMR, MN</t>
+          <t xml:space="preserve"> DA by AMR, RV, MN, CYN, RES</t>
         </is>
       </c>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DA by RES, CYN, HU, AMR, MN</t>
+          <t xml:space="preserve"> DA by AMR, RV, MN, CYN, RES</t>
         </is>
       </c>
       <c r="H125" s="3" t="inlineStr">
@@ -5060,27 +5064,27 @@
       </c>
       <c r="C128" s="3" t="inlineStr">
         <is>
+          <t xml:space="preserve"> NA     </t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="D128" s="3" t="inlineStr">
+      <c r="E128" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="E128" s="3" t="inlineStr">
+      <c r="F128" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
         </is>
       </c>
-      <c r="F128" s="3" t="inlineStr">
+      <c r="G128" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Free    </t>
-        </is>
-      </c>
-      <c r="G128" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NA     </t>
         </is>
       </c>
       <c r="H128" s="3" t="inlineStr">

--- a/timetable.xlsx
+++ b/timetable.xlsx
@@ -518,47 +518,47 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by SA, CHA            </t>
+          <t xml:space="preserve"> OOP by SA, CHA                            </t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by NR                 </t>
+          <t xml:space="preserve"> PSD by NR                                 </t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HED by                    </t>
+          <t xml:space="preserve"> HED by                                    </t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                  </t>
+          <t xml:space="preserve"> LUNCH by                                  </t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by AMR, KR, RM, LJ, APR</t>
+          <t xml:space="preserve"> WT (Lab - BSc Lab by AMR, BE, LJ, APR, KR)</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by AMR, KR, RM, LJ, APR</t>
+          <t xml:space="preserve"> WT (Lab - BSc Lab by AMR, BE, LJ, APR, KR)</t>
         </is>
       </c>
     </row>
@@ -622,47 +622,47 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by NR                 </t>
+          <t xml:space="preserve"> PSD by NR                                 </t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by KR                  </t>
+          <t xml:space="preserve"> WT by KR                                  </t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by               </t>
+          <t xml:space="preserve"> activity by                               </t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                  </t>
+          <t xml:space="preserve"> LUNCH by                                  </t>
         </is>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by RV, SH, CHA, SA, SD</t>
+          <t xml:space="preserve"> OOP (Lab - BCA Lab by CHA, RV, SD, SH, SA)</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by RV, SH, CHA, SA, SD</t>
+          <t xml:space="preserve"> OOP (Lab - BCA Lab by CHA, RV, SD, SH, SA)</t>
         </is>
       </c>
     </row>
@@ -674,47 +674,47 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                     </t>
+          <t xml:space="preserve"> MDC by                                     </t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by SA, CHA             </t>
+          <t xml:space="preserve"> OOP by SA, CHA                             </t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Library by lib             </t>
+          <t xml:space="preserve"> Library by lib                             </t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                   </t>
+          <t xml:space="preserve"> LUNCH by                                   </t>
         </is>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by SH, CHA, NR, APR, SD</t>
+          <t xml:space="preserve"> PSD (Lab - BCA Lab by CHA, FHP, NR, SD, SH)</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by SH, CHA, NR, APR, SD</t>
+          <t xml:space="preserve"> PSD (Lab - BCA Lab by CHA, FHP, NR, SD, SH)</t>
         </is>
       </c>
     </row>
@@ -994,47 +994,47 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                                           </t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                                           </t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                                           </t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                      </t>
+          <t xml:space="preserve"> MDC by                                       </t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                      </t>
+          <t xml:space="preserve"> MDC by                                       </t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by KNS, LJ              </t>
+          <t xml:space="preserve"> OOP by KNS, LJ                               </t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                    </t>
+          <t xml:space="preserve"> LUNCH by                                     </t>
         </is>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by AMR, BE, NEB, LJ, APR</t>
+          <t xml:space="preserve"> PSD (Lab - MCA Lab by AMR, SK, NEB, SME, APR)</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by AMR, BE, NEB, LJ, APR</t>
+          <t xml:space="preserve"> PSD (Lab - MCA Lab by AMR, SK, NEB, SME, APR)</t>
         </is>
       </c>
     </row>
@@ -1098,47 +1098,47 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MDC by                    </t>
+          <t xml:space="preserve"> MDC by                                    </t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by APR                </t>
+          <t xml:space="preserve"> PSD by APR                                </t>
         </is>
       </c>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Library by lib            </t>
+          <t xml:space="preserve"> Library by lib                            </t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                  </t>
+          <t xml:space="preserve"> LUNCH by                                  </t>
         </is>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by RV, SG, LJ, SA, KNS</t>
+          <t xml:space="preserve"> OOP (Lab - MCA Lab by KNS, LJ, RV, SG, SA)</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OOP by RV, SG, LJ, SA, KNS</t>
+          <t xml:space="preserve"> OOP (Lab - MCA Lab by KNS, LJ, RV, SG, SA)</t>
         </is>
       </c>
     </row>
@@ -1150,47 +1150,47 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> English by               </t>
+          <t xml:space="preserve"> English by                                </t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> English by               </t>
+          <t xml:space="preserve"> English by                                </t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSD by APR               </t>
+          <t xml:space="preserve"> PSD by APR                                </t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                 </t>
+          <t xml:space="preserve"> LUNCH by                                  </t>
         </is>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by CHA, SG, BE, TM, HU</t>
+          <t xml:space="preserve"> WT (Lab - BCA Lab by CHA, FHP, SG, HU, TM)</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WT by CHA, SG, BE, TM, HU</t>
+          <t xml:space="preserve"> WT (Lab - BCA Lab by CHA, FHP, SG, HU, TM)</t>
         </is>
       </c>
     </row>
@@ -1470,47 +1470,47 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by NR, TM, VA, SME, KNS</t>
+          <t xml:space="preserve"> PY (Lab - BCA Lab by KNS, NR, TM, KR, VA)</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by NR, TM, VA, SME, KNS</t>
+          <t xml:space="preserve"> PY (Lab - BCA Lab by KNS, NR, TM, KR, VA)</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                  </t>
+          <t xml:space="preserve"> LUNCH by                                 </t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OS by RV                  </t>
+          <t xml:space="preserve"> OS by RV                                 </t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI   </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI                  </t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by               </t>
+          <t xml:space="preserve"> activity by                              </t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                       </t>
         </is>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                       </t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                       </t>
         </is>
       </c>
     </row>
@@ -1574,47 +1574,47 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by SH, FHP, MAN, CYN, SD</t>
+          <t xml:space="preserve"> MA (Lab - BCA Lab by NR, CYN, SD, SH, MAN)</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by SH, FHP, MAN, CYN, SD</t>
+          <t xml:space="preserve"> MA (Lab - BCA Lab by NR, CYN, SD, SH, MAN)</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                   </t>
+          <t xml:space="preserve"> LUNCH by                                  </t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI    </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA A SI                   </t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accounting by acc          </t>
+          <t xml:space="preserve"> Accounting by acc                         </t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Accounting by acc          </t>
+          <t xml:space="preserve"> Accounting by acc                         </t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
     </row>
@@ -1895,47 +1895,47 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by RES, HU            </t>
+          <t xml:space="preserve"> PY by RES, HU                             </t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by RES, HU            </t>
+          <t xml:space="preserve"> PY by RES, HU                             </t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                 </t>
+          <t xml:space="preserve"> LUNCH by                                  </t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by SH, VKR, TM, SA, SD</t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by VKR, CYN, SD, TM, SH)</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by SH, VKR, TM, SA, SD</t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by VKR, CYN, SD, TM, SH)</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by              </t>
+          <t xml:space="preserve"> activity by                               </t>
         </is>
       </c>
       <c r="H41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="I41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
     </row>
@@ -1947,47 +1947,47 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by HU, FHP, SK, SME, RES</t>
+          <t xml:space="preserve"> PY (Lab - BCA Lab by HU, RA, APR, RES, KR)</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PY by HU, FHP, SK, SME, RES</t>
+          <t xml:space="preserve"> PY (Lab - BCA Lab by HU, RA, APR, RES, KR)</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                   </t>
+          <t xml:space="preserve"> LUNCH by                                  </t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> language by                </t>
+          <t xml:space="preserve"> language by                               </t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI    </t>
+          <t xml:space="preserve"> INTERNSHIP by 3BCA B SI                   </t>
         </is>
       </c>
       <c r="G42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Library by lib             </t>
+          <t xml:space="preserve"> Library by lib                            </t>
         </is>
       </c>
       <c r="H42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="I42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="J42" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
     </row>
@@ -2271,12 +2271,12 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by RV, RA, KR, SG, VA                                                   </t>
+          <t xml:space="preserve"> PRJ (Lab - MCA Lab by BE, RV, SG, KR, VA)                                   </t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by RV, RA, KR, SG, VA                                                   </t>
+          <t xml:space="preserve"> PRJ (Lab - MCA Lab by BE, RV, SG, KR, VA)                                   </t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
@@ -2288,14 +2288,14 @@
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by SH, RA, SK, NEB, SD</t>
+  by SK, NEB, SD, RA, SH</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by SH, RA, SK, NEB, SD</t>
+  by SK, NEB, SD, RA, SH</t>
         </is>
       </c>
       <c r="G52" s="3" t="inlineStr">
@@ -2489,48 +2489,48 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> GA by VA
- BI by NEB       </t>
+ BI by NEB                        </t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by VKR, SG, BE, CYN, HU</t>
+          <t xml:space="preserve"> MA (Lab - BCA Lab by VKR, CYN, SG, HU, RES)</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by VKR, SG, BE, CYN, HU</t>
+          <t xml:space="preserve"> MA (Lab - BCA Lab by VKR, CYN, SG, HU, RES)</t>
         </is>
       </c>
       <c r="G56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CN by SME                 </t>
+          <t xml:space="preserve"> CN by SME                                  </t>
         </is>
       </c>
       <c r="H56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CN by SME                 </t>
+          <t xml:space="preserve"> CN by SME                                  </t>
         </is>
       </c>
       <c r="I56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
     </row>
@@ -2654,52 +2654,52 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ (Lab - BSc Lab by SH)                                                  </t>
+          <t xml:space="preserve"> PRJ (Lab - BSc Lab by SH)                                                   </t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ (Lab - BSc Lab by SH)                                                  </t>
+          <t xml:space="preserve"> PRJ (Lab - BSc Lab by SH)                                                   </t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                                                                   </t>
+          <t xml:space="preserve"> LUNCH by                                                                    </t>
         </is>
       </c>
       <c r="E63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by SH, SK, SG, VA, SD</t>
+  by SME, SK, SG, RA, VA</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> GA (Lab - BCA Lab by VA)
  BI (Lab - MCA Lab by NEB)
-  by SH, SK, SG, VA, SD</t>
+  by SME, SK, SG, RA, VA</t>
         </is>
       </c>
       <c r="G63" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> MM by AMR
- CS by CYN                                                       </t>
+ CS by CYN                                                        </t>
         </is>
       </c>
       <c r="H63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                         </t>
+          <t xml:space="preserve"> NA                                                                          </t>
         </is>
       </c>
       <c r="I63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                         </t>
+          <t xml:space="preserve"> NA                                                                          </t>
         </is>
       </c>
       <c r="J63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                                                                         </t>
+          <t xml:space="preserve"> NA                                                                          </t>
         </is>
       </c>
     </row>
@@ -2711,12 +2711,12 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by SH, SK, RM, SME, HU                         </t>
+          <t xml:space="preserve"> PRJ (Lab - BSc Lab by RM, LJ, RA, HU, SH)          </t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRJ by SH, SK, RM, SME, HU                         </t>
+          <t xml:space="preserve"> PRJ (Lab - BSc Lab by RM, LJ, RA, HU, SH)          </t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -2927,48 +2927,48 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> GA by VA
- BI by NEB        </t>
+ BI by NEB                       </t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by RV, MAN, NR, KNS, RES</t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by BE, KNS, RV, NR, MAN)</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MA by RV, MAN, NR, KNS, RES</t>
+          <t xml:space="preserve"> MA (Lab - MCA Lab by BE, KNS, RV, NR, MAN)</t>
         </is>
       </c>
       <c r="G68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CN by RA                   </t>
+          <t xml:space="preserve"> CN by RA                                  </t>
         </is>
       </c>
       <c r="H68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CN by RA                   </t>
+          <t xml:space="preserve"> CN by RA                                  </t>
         </is>
       </c>
       <c r="I68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
     </row>
@@ -3196,47 +3196,47 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF by SR, MN              </t>
+          <t xml:space="preserve"> DCF by SR, MN                              </t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                        </t>
+          <t xml:space="preserve">Free                                        </t>
         </is>
       </c>
       <c r="G77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by                </t>
+          <t xml:space="preserve"> activity by                                </t>
         </is>
       </c>
       <c r="H77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                   </t>
+          <t xml:space="preserve"> LUNCH by                                   </t>
         </is>
       </c>
       <c r="I77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS by FHP, RA, KR, SK, NEB</t>
+          <t xml:space="preserve"> DAS (Lab - MCA Lab by SK, SME, RM, FHP, RA)</t>
         </is>
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS by FHP, RA, KR, SK, NEB</t>
+          <t xml:space="preserve"> DAS (Lab - MCA Lab by SK, SME, RM, FHP, RA)</t>
         </is>
       </c>
     </row>
@@ -3300,47 +3300,47 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="D79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="E79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> English by                </t>
+          <t xml:space="preserve"> English by                                </t>
         </is>
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> English by                </t>
+          <t xml:space="preserve"> English by                                </t>
         </is>
       </c>
       <c r="G79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS by FHP                </t>
+          <t xml:space="preserve"> DAS by FHP                                </t>
         </is>
       </c>
       <c r="H79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                  </t>
+          <t xml:space="preserve"> LUNCH by                                  </t>
         </is>
       </c>
       <c r="I79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF by RV, MN, NR, SME, SR</t>
+          <t xml:space="preserve"> DCF (Lab - MCA Lab by AMR, BE, MN, RV, SR)</t>
         </is>
       </c>
       <c r="J79" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF by RV, MN, NR, SME, SR</t>
+          <t xml:space="preserve"> DCF (Lab - MCA Lab by AMR, BE, MN, RV, SR)</t>
         </is>
       </c>
     </row>
@@ -3352,47 +3352,47 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                                          </t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                                          </t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WAD by AMR, CHA, TM, RM, APR</t>
+          <t xml:space="preserve"> WAD (Lab - BSc Lab by CHA, RM, FHP, APR, TM)</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WAD by AMR, CHA, TM, RM, APR</t>
+          <t xml:space="preserve"> WAD (Lab - BSc Lab by CHA, RM, FHP, APR, TM)</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                         </t>
+          <t xml:space="preserve">Free                                         </t>
         </is>
       </c>
       <c r="G80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                         </t>
+          <t xml:space="preserve">Free                                         </t>
         </is>
       </c>
       <c r="H80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                                          </t>
         </is>
       </c>
       <c r="I80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                                          </t>
         </is>
       </c>
       <c r="J80" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                          </t>
+          <t xml:space="preserve"> NA                                          </t>
         </is>
       </c>
     </row>
@@ -3516,47 +3516,47 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAVA by MN, VKR, SR, MAN, MAN</t>
+          <t xml:space="preserve"> JAVA (Lab - BCA Lab by MN, SR, VKR, MAN)</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAVA by MN, VKR, SR, MAN, MAN</t>
+          <t xml:space="preserve"> JAVA (Lab - BCA Lab by MN, SR, VKR, MAN)</t>
         </is>
       </c>
       <c r="D87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                     </t>
+          <t xml:space="preserve"> LUNCH by                                </t>
         </is>
       </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAP by RM                    </t>
+          <t xml:space="preserve"> DAP by RM                               </t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3CM SI         </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CM SI                    </t>
         </is>
       </c>
       <c r="G87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HED by                       </t>
+          <t xml:space="preserve"> HED by                                  </t>
         </is>
       </c>
       <c r="H87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                           </t>
+          <t xml:space="preserve"> NA                                      </t>
         </is>
       </c>
       <c r="I87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                           </t>
+          <t xml:space="preserve"> NA                                      </t>
         </is>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                           </t>
+          <t xml:space="preserve"> NA                                      </t>
         </is>
       </c>
     </row>
@@ -3672,47 +3672,47 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAP by RA, KR, NEB, RM, SR</t>
+          <t xml:space="preserve"> DAP (Lab - MCA Lab by SME, SK, NEB, RM, SR)</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAP by RA, KR, NEB, RM, SR</t>
+          <t xml:space="preserve"> DAP (Lab - MCA Lab by SME, SK, NEB, RM, SR)</t>
         </is>
       </c>
       <c r="D90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                  </t>
+          <t xml:space="preserve"> LUNCH by                                   </t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3CM SI      </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CM SI                       </t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                       </t>
+          <t xml:space="preserve">Free                                        </t>
         </is>
       </c>
       <c r="G90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Library by lib            </t>
+          <t xml:space="preserve"> Library by lib                             </t>
         </is>
       </c>
       <c r="H90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="I90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
     </row>
@@ -3941,47 +3941,47 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="D99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                         </t>
         </is>
       </c>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS by FHP, RA, KR, BE, RES</t>
+          <t xml:space="preserve"> DAS (Lab - BSc Lab by BE, FHP, SD, RES, SH)</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DAS by FHP, RA, KR, BE, RES</t>
+          <t xml:space="preserve"> DAS (Lab - BSc Lab by BE, FHP, SD, RES, SH)</t>
         </is>
       </c>
       <c r="G99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HED by                     </t>
+          <t xml:space="preserve"> HED by                                     </t>
         </is>
       </c>
       <c r="H99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                   </t>
+          <t xml:space="preserve"> LUNCH by                                   </t>
         </is>
       </c>
       <c r="I99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                        </t>
+          <t xml:space="preserve">Free                                        </t>
         </is>
       </c>
       <c r="J99" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                        </t>
+          <t xml:space="preserve">Free                                        </t>
         </is>
       </c>
     </row>
@@ -4201,47 +4201,47 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                       </t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                       </t>
         </is>
       </c>
       <c r="D104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                       </t>
+          <t xml:space="preserve">Free                                      </t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                       </t>
+          <t xml:space="preserve">Free                                      </t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF by SK, TM, SR, LJ, APR</t>
+          <t xml:space="preserve"> DCF (Lab - BSc Lab by RM, LJ, SR, TM, KR)</t>
         </is>
       </c>
       <c r="G104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DCF by SK, TM, SR, LJ, APR</t>
+          <t xml:space="preserve"> DCF (Lab - BSc Lab by RM, LJ, SR, TM, KR)</t>
         </is>
       </c>
       <c r="H104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                       </t>
         </is>
       </c>
       <c r="I104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                       </t>
         </is>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                        </t>
+          <t xml:space="preserve"> NA                                       </t>
         </is>
       </c>
     </row>
@@ -4417,47 +4417,47 @@
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAVA by VKR, RES, MAN, KNS, MAN</t>
+          <t xml:space="preserve"> JAVA (Lab - BCA Lab by KNS, RES, VKR, MAN)</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAVA by VKR, RES, MAN, KNS, MAN</t>
+          <t xml:space="preserve"> JAVA (Lab - BCA Lab by KNS, RES, VKR, MAN)</t>
         </is>
       </c>
       <c r="D112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                       </t>
+          <t xml:space="preserve"> LUNCH by                                  </t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WAD by BE                      </t>
+          <t xml:space="preserve"> WAD by BE                                 </t>
         </is>
       </c>
       <c r="F112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3CS SI           </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CS SI                      </t>
         </is>
       </c>
       <c r="G112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                            </t>
+          <t xml:space="preserve">Free                                       </t>
         </is>
       </c>
       <c r="H112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                             </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="I112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                             </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="J112" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                             </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
     </row>
@@ -4469,47 +4469,47 @@
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WAD by BE, RM, LJ, RM, RM</t>
+          <t xml:space="preserve"> WAD (Lab - MCA Lab by LJ, BE, NEB)</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> WAD by BE, RM, LJ, RM, RM</t>
+          <t xml:space="preserve"> WAD (Lab - MCA Lab by LJ, BE, NEB)</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                 </t>
+          <t xml:space="preserve"> LUNCH by                          </t>
         </is>
       </c>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INTERNSHIP by 3CS SI     </t>
+          <t xml:space="preserve"> INTERNSHIP by 3CS SI              </t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> language by              </t>
+          <t xml:space="preserve"> language by                       </t>
         </is>
       </c>
       <c r="G113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> activity by              </t>
+          <t xml:space="preserve"> activity by                       </t>
         </is>
       </c>
       <c r="H113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="I113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
       <c r="J113" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                       </t>
+          <t xml:space="preserve"> NA                                </t>
         </is>
       </c>
     </row>
@@ -4827,16 +4827,16 @@
         <is>
           <t xml:space="preserve"> WT (Lab - BCA Lab by HU)
  GA (Lab - MCA Lab by CHA)
-  by RV, RA, SME, SA, HU
-  by CHA, SK, BE, TM, NEB</t>
+  by RM, RV, RA, HU, SA
+  by SK, NEB, SME, CHA, TM</t>
         </is>
       </c>
       <c r="J123" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> WT (Lab - BCA Lab by HU)
  GA (Lab - MCA Lab by CHA)
-  by RV, RA, SME, SA, HU
-  by CHA, SK, BE, TM, NEB</t>
+  by RM, RV, RA, HU, SA
+  by SK, NEB, SME, CHA, TM</t>
         </is>
       </c>
     </row>
@@ -4901,48 +4901,48 @@
       </c>
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="C125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="D125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NA                         </t>
+          <t xml:space="preserve"> NA                                        </t>
         </is>
       </c>
       <c r="E125" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> WT by HU
- GA by CHA        </t>
+ GA by CHA                       </t>
         </is>
       </c>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DA by AMR, RV, MN, CYN, RES</t>
+          <t xml:space="preserve"> DA (Lab - BSc Lab by AMR, MN, RV, APR, SA)</t>
         </is>
       </c>
       <c r="G125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DA by AMR, RV, MN, CYN, RES</t>
+          <t xml:space="preserve"> DA (Lab - BSc Lab by AMR, MN, RV, APR, SA)</t>
         </is>
       </c>
       <c r="H125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUNCH by                   </t>
+          <t xml:space="preserve"> LUNCH by                                  </t>
         </is>
       </c>
       <c r="I125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                        </t>
+          <t xml:space="preserve">Free                                       </t>
         </is>
       </c>
       <c r="J125" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Free                        </t>
+          <t xml:space="preserve">Free                                       </t>
         </is>
       </c>
     </row>
